--- a/InputData/bldgs/ICpUEfEBE/Incr Cost per Unit E for Electrified Building Equipment.xlsx
+++ b/InputData/bldgs/ICpUEfEBE/Incr Cost per Unit E for Electrified Building Equipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\ICpUEfEBE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\bldgs\ICpUEfEBE (new)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E0A660-5D73-41A7-ABFB-D3DFEBB47F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12DD903-3B0F-4AC3-A93F-00EA2C99419D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="2640" windowWidth="23940" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="3855" windowWidth="19950" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="17" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="524">
   <si>
     <t xml:space="preserve">Installed Base </t>
   </si>
@@ -2033,6 +2033,9 @@
   </si>
   <si>
     <t>Unit: $/(BTU/yr) - a measure of capacity of the fuel-burning equipment that would have been purchased in the absence of an electrification policy</t>
+  </si>
+  <si>
+    <t>The EU EPS currently uses values from the US EPS.</t>
   </si>
 </sst>
 </file>
@@ -2499,7 +2502,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2870,37 +2873,38 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2933,28 +2937,28 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -8884,23 +8888,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" customWidth="1"/>
-    <col min="4" max="4" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.265625" customWidth="1"/>
+    <col min="2" max="2" width="69.3984375" customWidth="1"/>
+    <col min="4" max="4" width="61.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>467</v>
       </c>
@@ -8911,7 +8917,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>468</v>
       </c>
@@ -8919,7 +8925,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
@@ -8927,7 +8933,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>470</v>
       </c>
@@ -8935,7 +8941,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>471</v>
       </c>
@@ -8943,7 +8949,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>472</v>
       </c>
@@ -8951,7 +8957,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="23" t="s">
         <v>473</v>
       </c>
@@ -8959,7 +8965,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>468</v>
       </c>
@@ -8967,7 +8973,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <v>2020</v>
       </c>
@@ -8975,7 +8981,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>474</v>
       </c>
@@ -8983,7 +8989,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>476</v>
       </c>
@@ -8991,7 +8997,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>475</v>
       </c>
@@ -8999,158 +9005,166 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="169" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55">
         <v>0.93665959530026111</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57">
         <v>0.95661376543184151</v>
       </c>
     </row>
@@ -9175,14 +9189,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.86328125" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="140" t="s">
         <v>522</v>
       </c>
       <c r="B1" s="1">
@@ -9284,7 +9298,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>509</v>
       </c>
@@ -9386,7 +9400,7 @@
       </c>
       <c r="AI2" s="137"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>510</v>
       </c>
@@ -9519,7 +9533,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -9652,7 +9666,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>511</v>
       </c>
@@ -9785,7 +9799,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>512</v>
       </c>
@@ -9918,7 +9932,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>399</v>
       </c>
@@ -10051,7 +10065,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>513</v>
       </c>
@@ -10184,7 +10198,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
@@ -10317,7 +10331,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>515</v>
       </c>
@@ -10450,7 +10464,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
@@ -10598,14 +10612,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.86328125" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="140" t="s">
         <v>522</v>
       </c>
       <c r="B1" s="1">
@@ -10707,7 +10721,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>509</v>
       </c>
@@ -10809,7 +10823,7 @@
       </c>
       <c r="AI2" s="137"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>510</v>
       </c>
@@ -10942,7 +10956,7 @@
         <v>6.8976128566630268E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -11075,7 +11089,7 @@
         <v>6.8976128566630268E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>511</v>
       </c>
@@ -11208,7 +11222,7 @@
         <v>1.8524346005834896E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>512</v>
       </c>
@@ -11341,7 +11355,7 @@
         <v>6.8976128566630268E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>399</v>
       </c>
@@ -11474,7 +11488,7 @@
         <v>1.083603062466778E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>513</v>
       </c>
@@ -11607,7 +11621,7 @@
         <v>1.8524346005834896E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
@@ -11740,7 +11754,7 @@
         <v>1.8524346005834896E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>515</v>
       </c>
@@ -11873,7 +11887,7 @@
         <v>6.8976128566630268E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
@@ -12021,14 +12035,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.86328125" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="140" t="s">
         <v>522</v>
       </c>
       <c r="B1" s="1">
@@ -12130,7 +12144,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>509</v>
       </c>
@@ -12232,7 +12246,7 @@
       </c>
       <c r="AI2" s="137"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>510</v>
       </c>
@@ -12365,7 +12379,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -12498,7 +12512,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>511</v>
       </c>
@@ -12631,7 +12645,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>512</v>
       </c>
@@ -12764,7 +12778,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>399</v>
       </c>
@@ -12897,7 +12911,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>513</v>
       </c>
@@ -13030,7 +13044,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
@@ -13163,7 +13177,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>515</v>
       </c>
@@ -13296,7 +13310,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
@@ -13444,14 +13458,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.86328125" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="140" t="s">
         <v>522</v>
       </c>
       <c r="B1" s="1">
@@ -13553,7 +13567,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>509</v>
       </c>
@@ -13655,7 +13669,7 @@
       </c>
       <c r="AI2" s="137"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>510</v>
       </c>
@@ -13788,7 +13802,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -13921,7 +13935,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>511</v>
       </c>
@@ -14054,7 +14068,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>512</v>
       </c>
@@ -14187,7 +14201,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>399</v>
       </c>
@@ -14320,7 +14334,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>513</v>
       </c>
@@ -14453,7 +14467,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
@@ -14586,7 +14600,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>515</v>
       </c>
@@ -14719,7 +14733,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
@@ -14867,14 +14881,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.86328125" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="140" t="s">
         <v>522</v>
       </c>
       <c r="B1" s="1">
@@ -14976,7 +14990,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>509</v>
       </c>
@@ -15078,7 +15092,7 @@
       </c>
       <c r="AI2" s="137"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>510</v>
       </c>
@@ -15211,7 +15225,7 @@
         <v>7.42054085818039E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -15344,7 +15358,7 @@
         <v>7.42054085818039E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>511</v>
       </c>
@@ -15477,7 +15491,7 @@
         <v>5.9503274523152538E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>512</v>
       </c>
@@ -15610,7 +15624,7 @@
         <v>7.42054085818039E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>399</v>
       </c>
@@ -15743,7 +15757,7 @@
         <v>5.9503274523152538E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>513</v>
       </c>
@@ -15876,7 +15890,7 @@
         <v>5.9503274523152538E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
@@ -16009,7 +16023,7 @@
         <v>5.9503274523152538E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>515</v>
       </c>
@@ -16142,7 +16156,7 @@
         <v>7.42054085818039E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
@@ -16290,14 +16304,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.86328125" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="140" t="s">
         <v>522</v>
       </c>
       <c r="B1" s="1">
@@ -16399,7 +16413,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>509</v>
       </c>
@@ -16501,7 +16515,7 @@
       </c>
       <c r="AI2" s="137"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>510</v>
       </c>
@@ -16634,7 +16648,7 @@
         <v>2.2432773481021002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -16767,7 +16781,7 @@
         <v>2.2432773481021002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>511</v>
       </c>
@@ -16900,7 +16914,7 @@
         <v>2.271866696652272E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>512</v>
       </c>
@@ -17033,7 +17047,7 @@
         <v>2.2432773481021002E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>399</v>
       </c>
@@ -17166,7 +17180,7 @@
         <v>2.271866696652272E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>513</v>
       </c>
@@ -17299,7 +17313,7 @@
         <v>2.271866696652272E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
@@ -17432,7 +17446,7 @@
         <v>2.271866696652272E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>515</v>
       </c>
@@ -17565,7 +17579,7 @@
         <v>2.2432773481021002E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
@@ -17713,14 +17727,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.86328125" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="140" t="s">
         <v>522</v>
       </c>
       <c r="B1" s="1">
@@ -17822,7 +17836,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>509</v>
       </c>
@@ -17924,7 +17938,7 @@
       </c>
       <c r="AI2" s="137"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>510</v>
       </c>
@@ -18057,7 +18071,7 @@
         <v>2.2432773481021002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -18190,7 +18204,7 @@
         <v>2.2432773481021002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>511</v>
       </c>
@@ -18323,7 +18337,7 @@
         <v>2.271866696652272E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>512</v>
       </c>
@@ -18456,7 +18470,7 @@
         <v>2.2432773481021002E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>399</v>
       </c>
@@ -18589,7 +18603,7 @@
         <v>2.271866696652272E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>513</v>
       </c>
@@ -18722,7 +18736,7 @@
         <v>2.271866696652272E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
@@ -18855,7 +18869,7 @@
         <v>2.271866696652272E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>515</v>
       </c>
@@ -18988,7 +19002,7 @@
         <v>2.2432773481021002E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
@@ -19133,13 +19147,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="42" t="s">
         <v>388</v>
       </c>
@@ -19158,8 +19172,8 @@
       <c r="N1" s="41"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="152" t="s">
         <v>372</v>
       </c>
       <c r="B2" s="25">
@@ -19168,31 +19182,31 @@
       <c r="C2" s="25">
         <v>2015</v>
       </c>
-      <c r="D2" s="142">
+      <c r="D2" s="143">
         <v>2017</v>
       </c>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="142">
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="143">
         <v>2020</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="142">
+      <c r="I2" s="142"/>
+      <c r="J2" s="143">
         <v>2030</v>
       </c>
-      <c r="K2" s="144"/>
-      <c r="L2" s="142">
+      <c r="K2" s="142"/>
+      <c r="L2" s="143">
         <v>2040</v>
       </c>
-      <c r="M2" s="144"/>
-      <c r="N2" s="142">
+      <c r="M2" s="142"/>
+      <c r="N2" s="143">
         <v>2050</v>
       </c>
-      <c r="O2" s="144"/>
-    </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
+      <c r="O2" s="142"/>
+    </row>
+    <row r="3" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="153"/>
       <c r="B3" s="26" t="s">
         <v>373</v>
       </c>
@@ -19236,7 +19250,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
         <v>379</v>
       </c>
@@ -19283,7 +19297,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>380</v>
       </c>
@@ -19330,7 +19344,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
         <v>381</v>
       </c>
@@ -19377,8 +19391,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="155" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="156" t="s">
         <v>382</v>
       </c>
       <c r="B7" s="31">
@@ -19424,8 +19438,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="156"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="157"/>
       <c r="B8" s="31">
         <v>27</v>
       </c>
@@ -19469,7 +19483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="27" t="s">
         <v>383</v>
       </c>
@@ -19516,7 +19530,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
         <v>384</v>
       </c>
@@ -19563,7 +19577,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="27" t="s">
         <v>385</v>
       </c>
@@ -19610,7 +19624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="42" t="s">
         <v>386</v>
       </c>
@@ -19629,8 +19643,8 @@
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="140" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="146" t="s">
         <v>372</v>
       </c>
       <c r="B14" s="25">
@@ -19639,31 +19653,31 @@
       <c r="C14" s="25">
         <v>2015</v>
       </c>
-      <c r="D14" s="142">
+      <c r="D14" s="143">
         <v>2017</v>
       </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="142">
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="143">
         <v>2020</v>
       </c>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143">
+      <c r="I14" s="141"/>
+      <c r="J14" s="141">
         <v>2030</v>
       </c>
-      <c r="K14" s="144"/>
-      <c r="L14" s="142">
+      <c r="K14" s="142"/>
+      <c r="L14" s="143">
         <v>2040</v>
       </c>
-      <c r="M14" s="144"/>
-      <c r="N14" s="142">
+      <c r="M14" s="142"/>
+      <c r="N14" s="143">
         <v>2050</v>
       </c>
-      <c r="O14" s="144"/>
-    </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="141"/>
+      <c r="O14" s="142"/>
+    </row>
+    <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="147"/>
       <c r="B15" s="26" t="s">
         <v>373</v>
       </c>
@@ -19685,10 +19699,10 @@
       <c r="H15" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="I15" s="165" t="s">
+      <c r="I15" s="144" t="s">
         <v>378</v>
       </c>
-      <c r="J15" s="166"/>
+      <c r="J15" s="145"/>
       <c r="K15" s="26" t="s">
         <v>377</v>
       </c>
@@ -19705,7 +19719,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="27" t="s">
         <v>379</v>
       </c>
@@ -19752,7 +19766,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="26" t="s">
         <v>380</v>
       </c>
@@ -19799,7 +19813,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="27" t="s">
         <v>381</v>
       </c>
@@ -19846,8 +19860,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="155" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="156" t="s">
         <v>382</v>
       </c>
       <c r="B19" s="31">
@@ -19893,8 +19907,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="156"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" s="157"/>
       <c r="B20" s="31">
         <v>33</v>
       </c>
@@ -19938,8 +19952,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="157" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="158" t="s">
         <v>383</v>
       </c>
       <c r="B21" s="34">
@@ -19985,8 +19999,8 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="158"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" s="159"/>
       <c r="B22" s="34">
         <v>2350</v>
       </c>
@@ -20030,8 +20044,8 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="155" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="156" t="s">
         <v>384</v>
       </c>
       <c r="B23" s="37">
@@ -20077,8 +20091,8 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="156"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="157"/>
       <c r="B24" s="37">
         <v>3400</v>
       </c>
@@ -20122,7 +20136,7 @@
         <v>8550</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="27" t="s">
         <v>385</v>
       </c>
@@ -20169,7 +20183,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="42" t="s">
         <v>403</v>
       </c>
@@ -20188,7 +20202,7 @@
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="57" t="s">
         <v>372</v>
       </c>
@@ -20219,7 +20233,7 @@
       </c>
       <c r="M28" s="61"/>
     </row>
-    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="62"/>
       <c r="B29" s="63" t="s">
         <v>400</v>
@@ -20258,7 +20272,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="27" t="s">
         <v>390</v>
       </c>
@@ -20299,7 +20313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="26" t="s">
         <v>401</v>
       </c>
@@ -20340,7 +20354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="27" t="s">
         <v>402</v>
       </c>
@@ -20381,7 +20395,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="66" t="s">
         <v>394</v>
       </c>
@@ -20422,7 +20436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="69"/>
       <c r="B34" s="70">
         <v>25</v>
@@ -20461,7 +20475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
         <v>383</v>
       </c>
@@ -20502,7 +20516,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="26" t="s">
         <v>384</v>
       </c>
@@ -20543,7 +20557,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="27" t="s">
         <v>385</v>
       </c>
@@ -20584,7 +20598,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="42" t="s">
         <v>397</v>
       </c>
@@ -20603,8 +20617,8 @@
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="140" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A40" s="146" t="s">
         <v>372</v>
       </c>
       <c r="B40" s="45">
@@ -20613,31 +20627,31 @@
       <c r="C40" s="25">
         <v>2015</v>
       </c>
-      <c r="D40" s="142">
+      <c r="D40" s="143">
         <v>2017</v>
       </c>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="142">
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="143">
         <v>2020</v>
       </c>
-      <c r="I40" s="144"/>
-      <c r="J40" s="159" t="s">
+      <c r="I40" s="142"/>
+      <c r="J40" s="160" t="s">
         <v>389</v>
       </c>
-      <c r="K40" s="160"/>
-      <c r="L40" s="142">
+      <c r="K40" s="161"/>
+      <c r="L40" s="143">
         <v>2040</v>
       </c>
-      <c r="M40" s="144"/>
-      <c r="N40" s="142">
+      <c r="M40" s="142"/>
+      <c r="N40" s="143">
         <v>2050</v>
       </c>
-      <c r="O40" s="144"/>
-    </row>
-    <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="141"/>
+      <c r="O40" s="142"/>
+    </row>
+    <row r="41" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="147"/>
       <c r="B41" s="26" t="s">
         <v>373</v>
       </c>
@@ -20681,7 +20695,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="46" t="s">
         <v>390</v>
       </c>
@@ -20728,7 +20742,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="47" t="s">
         <v>391</v>
       </c>
@@ -20775,7 +20789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="46" t="s">
         <v>392</v>
       </c>
@@ -20822,8 +20836,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="161" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A45" s="148" t="s">
         <v>394</v>
       </c>
       <c r="B45" s="52">
@@ -20869,8 +20883,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="162"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A46" s="149"/>
       <c r="B46" s="33">
         <v>22</v>
       </c>
@@ -20914,7 +20928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="46" t="s">
         <v>395</v>
       </c>
@@ -20961,7 +20975,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="47" t="s">
         <v>396</v>
       </c>
@@ -21008,8 +21022,8 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="163" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A49" s="150" t="s">
         <v>385</v>
       </c>
       <c r="B49" s="30">
@@ -21055,8 +21069,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="164"/>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A50" s="151"/>
       <c r="B50" s="30">
         <v>125</v>
       </c>
@@ -21100,7 +21114,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="42" t="s">
         <v>412</v>
       </c>
@@ -21119,7 +21133,7 @@
       <c r="N52" s="41"/>
       <c r="O52" s="41"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="57"/>
       <c r="B53" s="45">
         <v>2009</v>
@@ -21127,30 +21141,30 @@
       <c r="C53" s="25">
         <v>2015</v>
       </c>
-      <c r="D53" s="142">
+      <c r="D53" s="143">
         <v>2017</v>
       </c>
-      <c r="E53" s="143"/>
-      <c r="F53" s="143"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="142">
+      <c r="E53" s="141"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="143">
         <v>2020</v>
       </c>
-      <c r="I53" s="144"/>
-      <c r="J53" s="153">
+      <c r="I53" s="142"/>
+      <c r="J53" s="154">
         <v>2030</v>
       </c>
-      <c r="K53" s="154"/>
-      <c r="L53" s="142">
+      <c r="K53" s="155"/>
+      <c r="L53" s="143">
         <v>2040</v>
       </c>
-      <c r="M53" s="144"/>
-      <c r="N53" s="142">
+      <c r="M53" s="142"/>
+      <c r="N53" s="143">
         <v>2050</v>
       </c>
-      <c r="O53" s="144"/>
-    </row>
-    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O53" s="142"/>
+    </row>
+    <row r="54" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="62"/>
       <c r="B54" s="26" t="s">
         <v>0</v>
@@ -21195,7 +21209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="27" t="s">
         <v>7</v>
       </c>
@@ -21242,7 +21256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="26" t="s">
         <v>8</v>
       </c>
@@ -21289,7 +21303,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="79" t="s">
         <v>5</v>
       </c>
@@ -21336,7 +21350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="83"/>
       <c r="B58" s="84">
         <v>20</v>
@@ -21381,7 +21395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="66" t="s">
         <v>6</v>
       </c>
@@ -21428,7 +21442,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="69"/>
       <c r="B60" s="90">
         <v>550</v>
@@ -21473,7 +21487,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="79" t="s">
         <v>9</v>
       </c>
@@ -21520,7 +21534,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="83"/>
       <c r="B62" s="96">
         <v>1050</v>
@@ -21565,7 +21579,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="26" t="s">
         <v>10</v>
       </c>
@@ -21612,7 +21626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="42" t="s">
         <v>410</v>
       </c>
@@ -21630,7 +21644,7 @@
       <c r="M66" s="41"/>
       <c r="N66" s="41"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" s="57" t="s">
         <v>372</v>
       </c>
@@ -21662,7 +21676,7 @@
       </c>
       <c r="N67" s="61"/>
     </row>
-    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="62"/>
       <c r="B68" s="63" t="s">
         <v>400</v>
@@ -21705,7 +21719,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="27" t="s">
         <v>408</v>
       </c>
@@ -21749,7 +21763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" s="26" t="s">
         <v>409</v>
       </c>
@@ -21793,7 +21807,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" s="79" t="s">
         <v>394</v>
       </c>
@@ -21837,7 +21851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72" s="83"/>
       <c r="B72" s="84">
         <v>20</v>
@@ -21879,7 +21893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" s="66" t="s">
         <v>383</v>
       </c>
@@ -21923,7 +21937,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="69"/>
       <c r="B74" s="90">
         <v>1450</v>
@@ -21965,7 +21979,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" s="79" t="s">
         <v>384</v>
       </c>
@@ -22009,7 +22023,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="83"/>
       <c r="B76" s="96">
         <v>2100</v>
@@ -22051,7 +22065,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A77" s="26" t="s">
         <v>385</v>
       </c>
@@ -22095,7 +22109,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="42" t="s">
         <v>414</v>
       </c>
@@ -22113,7 +22127,7 @@
       <c r="M79" s="41"/>
       <c r="N79" s="41"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="57" t="s">
         <v>372</v>
       </c>
@@ -22145,7 +22159,7 @@
       </c>
       <c r="N80" s="61"/>
     </row>
-    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A81" s="62"/>
       <c r="B81" s="63" t="s">
         <v>400</v>
@@ -22187,7 +22201,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="27" t="s">
         <v>408</v>
       </c>
@@ -22231,7 +22245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" s="26" t="s">
         <v>409</v>
       </c>
@@ -22275,7 +22289,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" s="79" t="s">
         <v>394</v>
       </c>
@@ -22319,7 +22333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="83"/>
       <c r="B85" s="84">
         <v>20</v>
@@ -22361,7 +22375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="104" t="s">
         <v>383</v>
       </c>
@@ -22405,7 +22419,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="69"/>
       <c r="B87" s="90">
         <v>1900</v>
@@ -22447,7 +22461,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="105" t="s">
         <v>384</v>
       </c>
@@ -22491,7 +22505,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="83"/>
       <c r="B89" s="96">
         <v>2450</v>
@@ -22533,7 +22547,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A90" s="26" t="s">
         <v>385</v>
       </c>
@@ -22577,7 +22591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="42" t="s">
         <v>443</v>
       </c>
@@ -22594,7 +22608,7 @@
       <c r="L93" s="41"/>
       <c r="M93" s="41"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="40" t="s">
         <v>372</v>
       </c>
@@ -22623,7 +22637,7 @@
       </c>
       <c r="M94" s="61"/>
     </row>
-    <row r="95" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A95" s="62"/>
       <c r="B95" s="63" t="s">
         <v>400</v>
@@ -22662,7 +22676,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" s="27" t="s">
         <v>379</v>
       </c>
@@ -22703,7 +22717,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" s="26" t="s">
         <v>434</v>
       </c>
@@ -22744,7 +22758,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" s="27" t="s">
         <v>394</v>
       </c>
@@ -22785,7 +22799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="26" t="s">
         <v>383</v>
       </c>
@@ -22826,7 +22840,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="27" t="s">
         <v>384</v>
       </c>
@@ -22867,7 +22881,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A101" s="26" t="s">
         <v>435</v>
       </c>
@@ -22908,7 +22922,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="42" t="s">
         <v>444</v>
       </c>
@@ -22921,18 +22935,18 @@
       <c r="H104" s="41"/>
       <c r="I104" s="41"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="140" t="s">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A105" s="146" t="s">
         <v>372</v>
       </c>
       <c r="B105" s="25">
         <v>2012</v>
       </c>
-      <c r="C105" s="142">
+      <c r="C105" s="143">
         <v>2017</v>
       </c>
-      <c r="D105" s="143"/>
-      <c r="E105" s="144"/>
+      <c r="D105" s="141"/>
+      <c r="E105" s="142"/>
       <c r="F105" s="25">
         <v>2020</v>
       </c>
@@ -22946,8 +22960,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="141"/>
+    <row r="106" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A106" s="147"/>
       <c r="B106" s="26" t="s">
         <v>373</v>
       </c>
@@ -22973,7 +22987,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" s="27" t="s">
         <v>379</v>
       </c>
@@ -23002,7 +23016,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" s="26" t="s">
         <v>434</v>
       </c>
@@ -23031,7 +23045,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" s="27" t="s">
         <v>394</v>
       </c>
@@ -23060,7 +23074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" s="26" t="s">
         <v>383</v>
       </c>
@@ -23089,7 +23103,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" s="27" t="s">
         <v>384</v>
       </c>
@@ -23118,7 +23132,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A112" s="26" t="s">
         <v>435</v>
       </c>
@@ -23147,7 +23161,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A113" s="118" t="s">
         <v>436</v>
       </c>
@@ -23160,7 +23174,7 @@
       <c r="H113" s="102"/>
       <c r="I113" s="102"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A114" s="118"/>
       <c r="B114" s="102"/>
       <c r="C114" s="102"/>
@@ -23171,7 +23185,7 @@
       <c r="H114" s="102"/>
       <c r="I114" s="102"/>
     </row>
-    <row r="115" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="42" t="s">
         <v>445</v>
       </c>
@@ -23189,38 +23203,38 @@
       <c r="M115" s="41"/>
       <c r="N115" s="41"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="140" t="s">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A116" s="146" t="s">
         <v>372</v>
       </c>
       <c r="B116" s="25">
         <v>2012</v>
       </c>
-      <c r="C116" s="142">
+      <c r="C116" s="143">
         <v>2017</v>
       </c>
-      <c r="D116" s="143"/>
-      <c r="E116" s="143"/>
-      <c r="F116" s="144"/>
-      <c r="G116" s="149" t="s">
+      <c r="D116" s="141"/>
+      <c r="E116" s="141"/>
+      <c r="F116" s="142"/>
+      <c r="G116" s="162" t="s">
         <v>437</v>
       </c>
-      <c r="H116" s="150"/>
-      <c r="I116" s="149" t="s">
+      <c r="H116" s="163"/>
+      <c r="I116" s="162" t="s">
         <v>438</v>
       </c>
-      <c r="J116" s="150"/>
-      <c r="K116" s="142">
+      <c r="J116" s="163"/>
+      <c r="K116" s="143">
         <v>2040</v>
       </c>
-      <c r="L116" s="144"/>
-      <c r="M116" s="142">
+      <c r="L116" s="142"/>
+      <c r="M116" s="143">
         <v>2050</v>
       </c>
-      <c r="N116" s="144"/>
-    </row>
-    <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="141"/>
+      <c r="N116" s="142"/>
+    </row>
+    <row r="117" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A117" s="147"/>
       <c r="B117" s="119" t="s">
         <v>373</v>
       </c>
@@ -23261,7 +23275,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" s="27" t="s">
         <v>390</v>
       </c>
@@ -23305,7 +23319,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A119" s="26" t="s">
         <v>440</v>
       </c>
@@ -23349,7 +23363,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A120" s="27" t="s">
         <v>441</v>
       </c>
@@ -23393,7 +23407,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A121" s="26" t="s">
         <v>442</v>
       </c>
@@ -23437,7 +23451,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A122" s="27" t="s">
         <v>394</v>
       </c>
@@ -23481,7 +23495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A123" s="26" t="s">
         <v>383</v>
       </c>
@@ -23525,7 +23539,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A124" s="27" t="s">
         <v>384</v>
       </c>
@@ -23569,7 +23583,7 @@
         <v>16050</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A125" s="104" t="s">
         <v>385</v>
       </c>
@@ -23613,7 +23627,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="42" t="s">
         <v>463</v>
       </c>
@@ -23631,7 +23645,7 @@
       <c r="M127" s="41"/>
       <c r="N127" s="41"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A128" s="57" t="s">
         <v>372</v>
       </c>
@@ -23639,29 +23653,29 @@
         <v>2012</v>
       </c>
       <c r="C128" s="99"/>
-      <c r="D128" s="145">
+      <c r="D128" s="164">
         <v>2017</v>
       </c>
-      <c r="E128" s="145"/>
-      <c r="F128" s="145"/>
-      <c r="G128" s="146">
+      <c r="E128" s="164"/>
+      <c r="F128" s="164"/>
+      <c r="G128" s="165">
         <v>2020</v>
       </c>
-      <c r="H128" s="147"/>
-      <c r="I128" s="146">
+      <c r="H128" s="166"/>
+      <c r="I128" s="165">
         <v>2030</v>
       </c>
-      <c r="J128" s="147"/>
-      <c r="K128" s="148">
+      <c r="J128" s="166"/>
+      <c r="K128" s="167">
         <v>2040</v>
       </c>
-      <c r="L128" s="145"/>
+      <c r="L128" s="164"/>
       <c r="M128" s="60">
         <v>2050</v>
       </c>
       <c r="N128" s="61"/>
     </row>
-    <row r="129" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A129" s="124"/>
       <c r="B129" s="125" t="s">
         <v>400</v>
@@ -23703,7 +23717,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A130" s="27" t="s">
         <v>459</v>
       </c>
@@ -23747,7 +23761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A131" s="26" t="s">
         <v>379</v>
       </c>
@@ -23791,7 +23805,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A132" s="27" t="s">
         <v>460</v>
       </c>
@@ -23835,7 +23849,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A133" s="26" t="s">
         <v>394</v>
       </c>
@@ -23879,7 +23893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A134" s="79" t="s">
         <v>461</v>
       </c>
@@ -23923,7 +23937,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A135" s="83"/>
       <c r="B135" s="97">
         <v>4200</v>
@@ -23965,7 +23979,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A136" s="66" t="s">
         <v>462</v>
       </c>
@@ -24009,7 +24023,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A137" s="69"/>
       <c r="B137" s="91">
         <v>6050</v>
@@ -24051,7 +24065,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A138" s="27" t="s">
         <v>385</v>
       </c>
@@ -24095,7 +24109,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="42" t="s">
         <v>464</v>
       </c>
@@ -24112,37 +24126,37 @@
       <c r="L140" s="41"/>
       <c r="M140" s="41"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="140" t="s">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A141" s="146" t="s">
         <v>372</v>
       </c>
       <c r="B141" s="25">
         <v>2012</v>
       </c>
-      <c r="C141" s="142">
+      <c r="C141" s="143">
         <v>2017</v>
       </c>
-      <c r="D141" s="143"/>
-      <c r="E141" s="144"/>
-      <c r="F141" s="142">
+      <c r="D141" s="141"/>
+      <c r="E141" s="142"/>
+      <c r="F141" s="143">
         <v>2020</v>
       </c>
-      <c r="G141" s="144"/>
-      <c r="H141" s="142">
+      <c r="G141" s="142"/>
+      <c r="H141" s="143">
         <v>2030</v>
       </c>
-      <c r="I141" s="144"/>
-      <c r="J141" s="142">
+      <c r="I141" s="142"/>
+      <c r="J141" s="143">
         <v>2040</v>
       </c>
-      <c r="K141" s="144"/>
-      <c r="L141" s="142">
+      <c r="K141" s="142"/>
+      <c r="L141" s="143">
         <v>2050</v>
       </c>
-      <c r="M141" s="144"/>
-    </row>
-    <row r="142" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="141"/>
+      <c r="M141" s="142"/>
+    </row>
+    <row r="142" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A142" s="147"/>
       <c r="B142" s="119" t="s">
         <v>373</v>
       </c>
@@ -24180,7 +24194,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A143" s="27" t="s">
         <v>459</v>
       </c>
@@ -24221,7 +24235,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A144" s="26" t="s">
         <v>379</v>
       </c>
@@ -24262,7 +24276,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145" s="27" t="s">
         <v>460</v>
       </c>
@@ -24303,7 +24317,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A146" s="26" t="s">
         <v>394</v>
       </c>
@@ -24344,7 +24358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147" s="27" t="s">
         <v>383</v>
       </c>
@@ -24385,7 +24399,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148" s="26" t="s">
         <v>384</v>
       </c>
@@ -24426,7 +24440,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A149" s="105" t="s">
         <v>385</v>
       </c>
@@ -24469,20 +24483,24 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="G116:H116"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="N53:O53"/>
     <mergeCell ref="L53:M53"/>
@@ -24499,24 +24517,20 @@
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="J40:K40"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="L141:M141"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24530,13 +24544,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
@@ -24637,14 +24651,14 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
@@ -24655,7 +24669,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
@@ -24668,7 +24682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
@@ -24679,7 +24693,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
@@ -24690,7 +24704,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -24698,12 +24712,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
@@ -24807,7 +24821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
@@ -24911,18 +24925,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
@@ -25029,7 +25043,7 @@
         <v>7.038E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
@@ -25136,7 +25150,7 @@
         <v>5.5909999999999996E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
@@ -25243,7 +25257,7 @@
         <v>-1.1866E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
@@ -25350,7 +25364,7 @@
         <v>5.9040000000000004E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>41</v>
       </c>
@@ -25457,17 +25471,17 @@
         <v>3.4350000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -25574,7 +25588,7 @@
         <v>-6.0089999999999996E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -25681,12 +25695,12 @@
         <v>-6.2950000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -25793,7 +25807,7 @@
         <v>-9.4120000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -25900,17 +25914,17 @@
         <v>-9.6959999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>54</v>
       </c>
@@ -26017,7 +26031,7 @@
         <v>-9.7560000000000008E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
         <v>56</v>
       </c>
@@ -26124,7 +26138,7 @@
         <v>1.6140999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>58</v>
       </c>
@@ -26231,7 +26245,7 @@
         <v>1.207E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>60</v>
       </c>
@@ -26338,7 +26352,7 @@
         <v>2.2049999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="8" t="s">
         <v>62</v>
       </c>
@@ -26445,7 +26459,7 @@
         <v>2.4450000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>64</v>
       </c>
@@ -26552,7 +26566,7 @@
         <v>1.1783E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>66</v>
       </c>
@@ -26659,7 +26673,7 @@
         <v>-1.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>68</v>
       </c>
@@ -26766,7 +26780,7 @@
         <v>-1.0524E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>70</v>
       </c>
@@ -26873,7 +26887,7 @@
         <v>6.6740000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>72</v>
       </c>
@@ -26980,7 +26994,7 @@
         <v>1.4947E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>74</v>
       </c>
@@ -27087,7 +27101,7 @@
         <v>7.737E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
         <v>76</v>
       </c>
@@ -27194,7 +27208,7 @@
         <v>-2.6585000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>78</v>
       </c>
@@ -27301,7 +27315,7 @@
         <v>-9.5099999999999994E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>80</v>
       </c>
@@ -27408,7 +27422,7 @@
         <v>1.1690000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>82</v>
       </c>
@@ -27515,12 +27529,12 @@
         <v>6.1809999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="8" t="s">
         <v>85</v>
       </c>
@@ -27627,7 +27641,7 @@
         <v>-6.3759999999999997E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="8" t="s">
         <v>86</v>
       </c>
@@ -27734,7 +27748,7 @@
         <v>-3.1570000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="8" t="s">
         <v>87</v>
       </c>
@@ -27841,7 +27855,7 @@
         <v>5.3550000000000004E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="8" t="s">
         <v>88</v>
       </c>
@@ -27948,7 +27962,7 @@
         <v>4.0439999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
         <v>89</v>
       </c>
@@ -28055,7 +28069,7 @@
         <v>1.2555E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="8" t="s">
         <v>90</v>
       </c>
@@ -28162,7 +28176,7 @@
         <v>-4.0159999999999996E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="8" t="s">
         <v>92</v>
       </c>
@@ -28269,12 +28283,12 @@
         <v>-3.2659999999999998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="8" t="s">
         <v>94</v>
       </c>
@@ -28381,7 +28395,7 @@
         <v>-2.3494999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="8" t="s">
         <v>95</v>
       </c>
@@ -28488,7 +28502,7 @@
         <v>-2.4362999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="8" t="s">
         <v>96</v>
       </c>
@@ -28595,7 +28609,7 @@
         <v>-6.1199999999999996E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
         <v>98</v>
       </c>
@@ -28702,12 +28716,12 @@
         <v>-2.3188E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="8" t="s">
         <v>100</v>
       </c>
@@ -28814,7 +28828,7 @@
         <v>-1.6118E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="8" t="s">
         <v>101</v>
       </c>
@@ -28921,7 +28935,7 @@
         <v>-2.6516999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
         <v>102</v>
       </c>
@@ -29028,7 +29042,7 @@
         <v>-1.2579999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>103</v>
       </c>
@@ -29135,7 +29149,7 @@
         <v>1.6822E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
         <v>105</v>
       </c>
@@ -29242,7 +29256,7 @@
         <v>-9.6410000000000003E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="8" t="s">
         <v>106</v>
       </c>
@@ -29349,12 +29363,12 @@
         <v>-1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="8" t="s">
         <v>109</v>
       </c>
@@ -29461,7 +29475,7 @@
         <v>-9.1420000000000008E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="8" t="s">
         <v>111</v>
       </c>
@@ -29568,7 +29582,7 @@
         <v>1.5056E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="8" t="s">
         <v>113</v>
       </c>
@@ -29675,7 +29689,7 @@
         <v>2.5309999999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="8" t="s">
         <v>115</v>
       </c>
@@ -29782,7 +29796,7 @@
         <v>2.2049999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="8" t="s">
         <v>117</v>
       </c>
@@ -29889,7 +29903,7 @@
         <v>2.2360000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="8" t="s">
         <v>119</v>
       </c>
@@ -29996,7 +30010,7 @@
         <v>1.1904E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="8" t="s">
         <v>121</v>
       </c>
@@ -30103,7 +30117,7 @@
         <v>-1.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="8" t="s">
         <v>123</v>
       </c>
@@ -30210,7 +30224,7 @@
         <v>-1.0524E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="8" t="s">
         <v>125</v>
       </c>
@@ -30317,7 +30331,7 @@
         <v>6.6740000000000002E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="8" t="s">
         <v>127</v>
       </c>
@@ -30424,7 +30438,7 @@
         <v>1.4947E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="8" t="s">
         <v>129</v>
       </c>
@@ -30531,7 +30545,7 @@
         <v>7.737E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="8" t="s">
         <v>131</v>
       </c>
@@ -30638,7 +30652,7 @@
         <v>-2.6585000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="8" t="s">
         <v>133</v>
       </c>
@@ -30745,7 +30759,7 @@
         <v>-9.5099999999999994E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="8" t="s">
         <v>135</v>
       </c>
@@ -30852,7 +30866,7 @@
         <v>1.0208E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="8" t="s">
         <v>137</v>
       </c>
@@ -30959,7 +30973,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="8" t="s">
         <v>139</v>
       </c>
@@ -31066,12 +31080,12 @@
         <v>-7.8600000000000002E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="8" t="s">
         <v>142</v>
       </c>
@@ -31178,7 +31192,7 @@
         <v>-1.0451999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="8" t="s">
         <v>143</v>
       </c>
@@ -31285,7 +31299,7 @@
         <v>1.137E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="8" t="s">
         <v>144</v>
       </c>
@@ -31392,7 +31406,7 @@
         <v>-5.2899999999999996E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="8" t="s">
         <v>145</v>
       </c>
@@ -31499,7 +31513,7 @@
         <v>-2.189E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="8" t="s">
         <v>146</v>
       </c>
@@ -31606,7 +31620,7 @@
         <v>-1.26E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="8" t="s">
         <v>147</v>
       </c>
@@ -31713,7 +31727,7 @@
         <v>7.6790000000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="8" t="s">
         <v>148</v>
       </c>
@@ -31820,7 +31834,7 @@
         <v>-5.888E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="8" t="s">
         <v>149</v>
       </c>
@@ -31927,7 +31941,7 @@
         <v>-1.4862999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="8" t="s">
         <v>150</v>
       </c>
@@ -32034,7 +32048,7 @@
         <v>2.2599999999999999E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="8" t="s">
         <v>151</v>
       </c>
@@ -32141,7 +32155,7 @@
         <v>1.0496999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="8" t="s">
         <v>152</v>
       </c>
@@ -32248,7 +32262,7 @@
         <v>3.3180000000000002E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="8" t="s">
         <v>153</v>
       </c>
@@ -32355,7 +32369,7 @@
         <v>-3.0852999999999998E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="8" t="s">
         <v>154</v>
       </c>
@@ -32462,7 +32476,7 @@
         <v>-1.3853000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="8" t="s">
         <v>155</v>
       </c>
@@ -32569,7 +32583,7 @@
         <v>6.9249999999999997E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="8" t="s">
         <v>156</v>
       </c>
@@ -32676,12 +32690,12 @@
         <v>-4.2900000000000002E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="8" t="s">
         <v>159</v>
       </c>
@@ -32788,7 +32802,7 @@
         <v>4.5229999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="8" t="s">
         <v>161</v>
       </c>
@@ -32895,7 +32909,7 @@
         <v>8.0780000000000001E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="8" t="s">
         <v>163</v>
       </c>
@@ -33002,7 +33016,7 @@
         <v>5.6024999999999998E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="8" t="s">
         <v>165</v>
       </c>
@@ -33109,7 +33123,7 @@
         <v>1.2440000000000001E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="8" t="s">
         <v>167</v>
       </c>
@@ -33216,12 +33230,12 @@
         <v>5.1090000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="8" t="s">
         <v>170</v>
       </c>
@@ -33328,7 +33342,7 @@
         <v>-4.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="8" t="s">
         <v>172</v>
       </c>
@@ -33435,7 +33449,7 @@
         <v>-3.313E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="8" t="s">
         <v>174</v>
       </c>
@@ -33542,7 +33556,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="8" t="s">
         <v>176</v>
       </c>
@@ -33649,7 +33663,7 @@
         <v>-4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="8" t="s">
         <v>178</v>
       </c>
@@ -33756,7 +33770,7 @@
         <v>-1.6280000000000001E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="8" t="s">
         <v>180</v>
       </c>
@@ -33863,7 +33877,7 @@
         <v>-5.5500000000000005E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="8" t="s">
         <v>182</v>
       </c>
@@ -33970,7 +33984,7 @@
         <v>-5.5830000000000003E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="8" t="s">
         <v>184</v>
       </c>
@@ -34077,7 +34091,7 @@
         <v>-6.0060000000000001E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="8" t="s">
         <v>186</v>
       </c>
@@ -34184,7 +34198,7 @@
         <v>-6.9709999999999998E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="8" t="s">
         <v>188</v>
       </c>
@@ -34291,12 +34305,12 @@
         <v>-5.2379999999999996E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="130" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="8" t="s">
         <v>191</v>
       </c>
@@ -34403,7 +34417,7 @@
         <v>1.1242E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="8" t="s">
         <v>192</v>
       </c>
@@ -34510,7 +34524,7 @@
         <v>9.6939999999999995E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="8" t="s">
         <v>193</v>
       </c>
@@ -34617,7 +34631,7 @@
         <v>7.489E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="8" t="s">
         <v>194</v>
       </c>
@@ -34724,7 +34738,7 @@
         <v>7.8600000000000007E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="8" t="s">
         <v>195</v>
       </c>
@@ -34831,7 +34845,7 @@
         <v>3.0799999999999998E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="8" t="s">
         <v>196</v>
       </c>
@@ -34938,7 +34952,7 @@
         <v>3.8960000000000002E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="8" t="s">
         <v>197</v>
       </c>
@@ -35045,7 +35059,7 @@
         <v>5.6709999999999998E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="8" t="s">
         <v>198</v>
       </c>
@@ -35152,7 +35166,7 @@
         <v>8.5380000000000005E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="8" t="s">
         <v>199</v>
       </c>
@@ -35259,7 +35273,7 @@
         <v>1.1802999999999999E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="8" t="s">
         <v>200</v>
       </c>
@@ -35366,131 +35380,131 @@
         <v>7.5849999999999997E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="167" t="s">
+    <row r="140" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="141" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B141" s="168" t="s">
         <v>201</v>
       </c>
-      <c r="C141" s="167"/>
-      <c r="D141" s="167"/>
-      <c r="E141" s="167"/>
-      <c r="F141" s="167"/>
-      <c r="G141" s="167"/>
-      <c r="H141" s="167"/>
-      <c r="I141" s="167"/>
-      <c r="J141" s="167"/>
-      <c r="K141" s="167"/>
-      <c r="L141" s="167"/>
-      <c r="M141" s="167"/>
-      <c r="N141" s="167"/>
-      <c r="O141" s="167"/>
-      <c r="P141" s="167"/>
-      <c r="Q141" s="167"/>
-      <c r="R141" s="167"/>
-      <c r="S141" s="167"/>
-      <c r="T141" s="167"/>
-      <c r="U141" s="167"/>
-      <c r="V141" s="167"/>
-      <c r="W141" s="167"/>
-      <c r="X141" s="167"/>
-      <c r="Y141" s="167"/>
-      <c r="Z141" s="167"/>
-      <c r="AA141" s="167"/>
-      <c r="AB141" s="167"/>
-      <c r="AC141" s="167"/>
-      <c r="AD141" s="167"/>
-      <c r="AE141" s="167"/>
-      <c r="AF141" s="167"/>
-      <c r="AG141" s="167"/>
-      <c r="AH141" s="167"/>
-      <c r="AI141" s="167"/>
-    </row>
-    <row r="142" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="168"/>
+      <c r="D141" s="168"/>
+      <c r="E141" s="168"/>
+      <c r="F141" s="168"/>
+      <c r="G141" s="168"/>
+      <c r="H141" s="168"/>
+      <c r="I141" s="168"/>
+      <c r="J141" s="168"/>
+      <c r="K141" s="168"/>
+      <c r="L141" s="168"/>
+      <c r="M141" s="168"/>
+      <c r="N141" s="168"/>
+      <c r="O141" s="168"/>
+      <c r="P141" s="168"/>
+      <c r="Q141" s="168"/>
+      <c r="R141" s="168"/>
+      <c r="S141" s="168"/>
+      <c r="T141" s="168"/>
+      <c r="U141" s="168"/>
+      <c r="V141" s="168"/>
+      <c r="W141" s="168"/>
+      <c r="X141" s="168"/>
+      <c r="Y141" s="168"/>
+      <c r="Z141" s="168"/>
+      <c r="AA141" s="168"/>
+      <c r="AB141" s="168"/>
+      <c r="AC141" s="168"/>
+      <c r="AD141" s="168"/>
+      <c r="AE141" s="168"/>
+      <c r="AF141" s="168"/>
+      <c r="AG141" s="168"/>
+      <c r="AH141" s="168"/>
+      <c r="AI141" s="168"/>
+    </row>
+    <row r="142" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B142" s="20" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="143" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="144" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B144" s="20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B145" s="20" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="20" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B147" s="20" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B148" s="20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B149" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B150" s="20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B151" s="20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B152" s="20" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B153" s="20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B154" s="20" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B155" s="20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="20" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B157" s="20" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="20" t="s">
         <v>219</v>
       </c>
@@ -35511,13 +35525,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
@@ -35618,8 +35632,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
@@ -35631,7 +35645,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
@@ -35645,7 +35659,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
@@ -35657,7 +35671,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
@@ -35669,7 +35683,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>220</v>
       </c>
@@ -35677,12 +35691,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
@@ -35786,7 +35800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="6" t="s">
         <v>222</v>
       </c>
@@ -35890,18 +35904,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>225</v>
       </c>
@@ -36008,7 +36022,7 @@
         <v>1.3242E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>227</v>
       </c>
@@ -36115,7 +36129,7 @@
         <v>2.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>229</v>
       </c>
@@ -36222,7 +36236,7 @@
         <v>-3.6189999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>231</v>
       </c>
@@ -36329,7 +36343,7 @@
         <v>8.6479999999999994E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>233</v>
       </c>
@@ -36436,7 +36450,7 @@
         <v>-1.0012999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>235</v>
       </c>
@@ -36543,7 +36557,7 @@
         <v>-5.0650000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>237</v>
       </c>
@@ -36650,7 +36664,7 @@
         <v>9.4825999999999994E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>239</v>
       </c>
@@ -36757,7 +36771,7 @@
         <v>-1.1009E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>241</v>
       </c>
@@ -36864,7 +36878,7 @@
         <v>4.1797000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>243</v>
       </c>
@@ -36971,12 +36985,12 @@
         <v>6.2329999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>245</v>
       </c>
@@ -37083,7 +37097,7 @@
         <v>1.3242E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>246</v>
       </c>
@@ -37190,7 +37204,7 @@
         <v>-3.6189999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
         <v>247</v>
       </c>
@@ -37297,7 +37311,7 @@
         <v>4.1797000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>248</v>
       </c>
@@ -37404,7 +37418,7 @@
         <v>1.6489E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="8" t="s">
         <v>250</v>
       </c>
@@ -37511,7 +37525,7 @@
         <v>-2.48E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>252</v>
       </c>
@@ -37618,12 +37632,12 @@
         <v>9.1929999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>254</v>
       </c>
@@ -37730,7 +37744,7 @@
         <v>4.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="8" t="s">
         <v>256</v>
       </c>
@@ -37837,7 +37851,7 @@
         <v>8.3529999999999993E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>258</v>
       </c>
@@ -37944,7 +37958,7 @@
         <v>-1.6465E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>259</v>
       </c>
@@ -38051,7 +38065,7 @@
         <v>-1.9977999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>260</v>
       </c>
@@ -38158,7 +38172,7 @@
         <v>1.1622E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>262</v>
       </c>
@@ -38265,12 +38279,12 @@
         <v>5.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
         <v>264</v>
       </c>
@@ -38377,7 +38391,7 @@
         <v>2.8930000000000002E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>265</v>
       </c>
@@ -38484,7 +38498,7 @@
         <v>8.4480000000000006E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>266</v>
       </c>
@@ -38591,7 +38605,7 @@
         <v>-8.2159999999999993E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>267</v>
       </c>
@@ -38698,12 +38712,12 @@
         <v>4.326E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="8" t="s">
         <v>269</v>
       </c>
@@ -38810,7 +38824,7 @@
         <v>1.2982E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="8" t="s">
         <v>270</v>
       </c>
@@ -38917,7 +38931,7 @@
         <v>1.3833E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="8" t="s">
         <v>271</v>
       </c>
@@ -39024,12 +39038,12 @@
         <v>1.3146E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="8" t="s">
         <v>273</v>
       </c>
@@ -39136,7 +39150,7 @@
         <v>6.5170000000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="8" t="s">
         <v>275</v>
       </c>
@@ -39243,17 +39257,17 @@
         <v>5.3150000000000003E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="8" t="s">
         <v>277</v>
       </c>
@@ -39360,7 +39374,7 @@
         <v>2.2829999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="8" t="s">
         <v>279</v>
       </c>
@@ -39467,7 +39481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
         <v>281</v>
       </c>
@@ -39574,7 +39588,7 @@
         <v>3.0360000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="8" t="s">
         <v>283</v>
       </c>
@@ -39681,7 +39695,7 @@
         <v>2.0309999999999998E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="8" t="s">
         <v>285</v>
       </c>
@@ -39788,12 +39802,12 @@
         <v>5.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
         <v>287</v>
       </c>
@@ -39900,7 +39914,7 @@
         <v>4.4809999999999997E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>289</v>
       </c>
@@ -40007,7 +40021,7 @@
         <v>4.9849999999999998E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
         <v>290</v>
       </c>
@@ -40114,7 +40128,7 @@
         <v>4.5139999999999998E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="8" t="s">
         <v>292</v>
       </c>
@@ -40221,7 +40235,7 @@
         <v>4.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="8" t="s">
         <v>294</v>
       </c>
@@ -40328,12 +40342,12 @@
         <v>2.9880000000000002E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="11" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="8" t="s">
         <v>297</v>
       </c>
@@ -40440,7 +40454,7 @@
         <v>2.1670000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="8" t="s">
         <v>299</v>
       </c>
@@ -40547,7 +40561,7 @@
         <v>1.6260000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="8" t="s">
         <v>301</v>
       </c>
@@ -40654,7 +40668,7 @@
         <v>5.2890000000000003E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="8" t="s">
         <v>303</v>
       </c>
@@ -40761,12 +40775,12 @@
         <v>1.7570000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="8" t="s">
         <v>306</v>
       </c>
@@ -40873,7 +40887,7 @@
         <v>-7.2269999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="8" t="s">
         <v>307</v>
       </c>
@@ -40980,17 +40994,17 @@
         <v>-6.8640000000000003E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="8" t="s">
         <v>309</v>
       </c>
@@ -41097,7 +41111,7 @@
         <v>-8.7430000000000008E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="8" t="s">
         <v>311</v>
       </c>
@@ -41204,7 +41218,7 @@
         <v>-1.872E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="8" t="s">
         <v>313</v>
       </c>
@@ -41311,12 +41325,12 @@
         <v>-6.986E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="8" t="s">
         <v>315</v>
       </c>
@@ -41423,7 +41437,7 @@
         <v>-2.7439999999999999E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="8" t="s">
         <v>316</v>
       </c>
@@ -41530,7 +41544,7 @@
         <v>-6.9399999999999996E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="8" t="s">
         <v>317</v>
       </c>
@@ -41637,22 +41651,22 @@
         <v>-2.111E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="11" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="97" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="98" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="8" t="s">
         <v>321</v>
       </c>
@@ -41759,7 +41773,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="99" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="8" t="s">
         <v>324</v>
       </c>
@@ -41866,7 +41880,7 @@
         <v>6.0878000000000002E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="8" t="s">
         <v>326</v>
       </c>
@@ -41973,7 +41987,7 @@
         <v>6.1209999999999997E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="8" t="s">
         <v>328</v>
       </c>
@@ -42080,12 +42094,12 @@
         <v>6.0852999999999997E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="11" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="103" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="8" t="s">
         <v>331</v>
       </c>
@@ -42192,7 +42206,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="8" t="s">
         <v>332</v>
       </c>
@@ -42299,7 +42313,7 @@
         <v>5.8838000000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="8" t="s">
         <v>333</v>
       </c>
@@ -42406,7 +42420,7 @@
         <v>4.8869999999999999E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="8" t="s">
         <v>334</v>
       </c>
@@ -42513,12 +42527,12 @@
         <v>5.8816E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="11" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="108" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="8" t="s">
         <v>336</v>
       </c>
@@ -42625,7 +42639,7 @@
         <v>7.4297000000000002E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="8" t="s">
         <v>338</v>
       </c>
@@ -42732,12 +42746,12 @@
         <v>5.3877000000000001E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="11" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="8" t="s">
         <v>341</v>
       </c>
@@ -42844,7 +42858,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="112" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="8" t="s">
         <v>342</v>
       </c>
@@ -42951,7 +42965,7 @@
         <v>5.6024999999999998E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="8" t="s">
         <v>343</v>
       </c>
@@ -43058,7 +43072,7 @@
         <v>1.2440000000000001E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="8" t="s">
         <v>344</v>
       </c>
@@ -43165,176 +43179,176 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="167" t="s">
+    <row r="115" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="116" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B116" s="168" t="s">
         <v>345</v>
       </c>
-      <c r="C116" s="167"/>
-      <c r="D116" s="167"/>
-      <c r="E116" s="167"/>
-      <c r="F116" s="167"/>
-      <c r="G116" s="167"/>
-      <c r="H116" s="167"/>
-      <c r="I116" s="167"/>
-      <c r="J116" s="167"/>
-      <c r="K116" s="167"/>
-      <c r="L116" s="167"/>
-      <c r="M116" s="167"/>
-      <c r="N116" s="167"/>
-      <c r="O116" s="167"/>
-      <c r="P116" s="167"/>
-      <c r="Q116" s="167"/>
-      <c r="R116" s="167"/>
-      <c r="S116" s="167"/>
-      <c r="T116" s="167"/>
-      <c r="U116" s="167"/>
-      <c r="V116" s="167"/>
-      <c r="W116" s="167"/>
-      <c r="X116" s="167"/>
-      <c r="Y116" s="167"/>
-      <c r="Z116" s="167"/>
-      <c r="AA116" s="167"/>
-      <c r="AB116" s="167"/>
-      <c r="AC116" s="167"/>
-      <c r="AD116" s="167"/>
-      <c r="AE116" s="167"/>
-      <c r="AF116" s="167"/>
-      <c r="AG116" s="167"/>
-      <c r="AH116" s="167"/>
-      <c r="AI116" s="167"/>
-    </row>
-    <row r="117" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="168"/>
+      <c r="D116" s="168"/>
+      <c r="E116" s="168"/>
+      <c r="F116" s="168"/>
+      <c r="G116" s="168"/>
+      <c r="H116" s="168"/>
+      <c r="I116" s="168"/>
+      <c r="J116" s="168"/>
+      <c r="K116" s="168"/>
+      <c r="L116" s="168"/>
+      <c r="M116" s="168"/>
+      <c r="N116" s="168"/>
+      <c r="O116" s="168"/>
+      <c r="P116" s="168"/>
+      <c r="Q116" s="168"/>
+      <c r="R116" s="168"/>
+      <c r="S116" s="168"/>
+      <c r="T116" s="168"/>
+      <c r="U116" s="168"/>
+      <c r="V116" s="168"/>
+      <c r="W116" s="168"/>
+      <c r="X116" s="168"/>
+      <c r="Y116" s="168"/>
+      <c r="Z116" s="168"/>
+      <c r="AA116" s="168"/>
+      <c r="AB116" s="168"/>
+      <c r="AC116" s="168"/>
+      <c r="AD116" s="168"/>
+      <c r="AE116" s="168"/>
+      <c r="AF116" s="168"/>
+      <c r="AG116" s="168"/>
+      <c r="AH116" s="168"/>
+      <c r="AI116" s="168"/>
+    </row>
+    <row r="117" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="20" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="20" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="119" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="20" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="120" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="20" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="121" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="20" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="122" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="20" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="123" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="20" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="124" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="20" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="125" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="20" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="126" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="20" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="20" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="128" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="20" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="20" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B130" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="20" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="20" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="20" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B134" s="20" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B135" s="20" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="20" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="20" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B138" s="20" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B139" s="20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B140" s="20" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="141" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B141" s="20" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="142" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B142" s="20" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="20" t="s">
         <v>369</v>
       </c>
@@ -43353,20 +43367,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>417</v>
       </c>
@@ -43374,7 +43388,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>424</v>
       </c>
@@ -43391,7 +43405,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -43408,7 +43422,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -43425,7 +43439,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -43442,7 +43456,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -43459,7 +43473,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -43476,7 +43490,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -43493,7 +43507,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -43510,7 +43524,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -43527,7 +43541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -43544,7 +43558,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -43561,7 +43575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -43578,7 +43592,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -43595,7 +43609,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2030</v>
       </c>
@@ -43612,7 +43626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2030</v>
       </c>
@@ -43629,7 +43643,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2030</v>
       </c>
@@ -43646,7 +43660,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2030</v>
       </c>
@@ -43663,7 +43677,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2030</v>
       </c>
@@ -43680,7 +43694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -43697,7 +43711,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2040</v>
       </c>
@@ -43714,7 +43728,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2040</v>
       </c>
@@ -43731,7 +43745,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2040</v>
       </c>
@@ -43748,7 +43762,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2040</v>
       </c>
@@ -43765,7 +43779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2040</v>
       </c>
@@ -43782,7 +43796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2040</v>
       </c>
@@ -43799,7 +43813,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -43816,7 +43830,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2050</v>
       </c>
@@ -43833,7 +43847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2050</v>
       </c>
@@ -43850,7 +43864,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2050</v>
       </c>
@@ -43867,7 +43881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2050</v>
       </c>
@@ -43884,7 +43898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2050</v>
       </c>
@@ -43912,20 +43926,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" customWidth="1"/>
+    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>417</v>
       </c>
@@ -43933,7 +43947,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>424</v>
       </c>
@@ -43950,7 +43964,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -43967,7 +43981,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -43984,7 +43998,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -44001,7 +44015,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -44018,7 +44032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -44035,7 +44049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -44052,7 +44066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -44069,7 +44083,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2030</v>
       </c>
@@ -44086,7 +44100,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2030</v>
       </c>
@@ -44103,7 +44117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2040</v>
       </c>
@@ -44120,7 +44134,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2040</v>
       </c>
@@ -44137,7 +44151,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -44154,7 +44168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2050</v>
       </c>
@@ -44171,7 +44185,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2050</v>
       </c>
@@ -44188,7 +44202,7 @@
         <v>3.9200000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2050</v>
       </c>
@@ -44216,13 +44230,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
@@ -44259,7 +44273,7 @@
       <c r="AF1" s="54"/>
       <c r="AG1" s="54"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" s="72" t="s">
         <v>405</v>
       </c>
@@ -44296,7 +44310,7 @@
       <c r="AF2" s="73"/>
       <c r="AG2" s="73"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>370</v>
       </c>
@@ -44397,7 +44411,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -44530,7 +44544,7 @@
         <v>39516271.483557969</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -44663,7 +44677,7 @@
         <v>46771428.550289176</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>399</v>
       </c>
@@ -44796,7 +44810,7 @@
         <v>129659045.97500777</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
         <v>371</v>
       </c>
@@ -44816,7 +44830,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>452</v>
       </c>
@@ -44841,7 +44855,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>453</v>
       </c>
@@ -44866,7 +44880,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>465</v>
       </c>
@@ -44891,7 +44905,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A13" s="24" t="s">
         <v>398</v>
       </c>
@@ -44992,406 +45006,406 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>456</v>
       </c>
       <c r="B14">
-        <f>(TREND($B$9:$C$9,$B$8:$C$8,B$13))*(About!$A$53)</f>
+        <f>(TREND($B$9:$C$9,$B$8:$C$8,B$13))*(About!$A$55)</f>
         <v>2738.1682169277724</v>
       </c>
       <c r="C14">
-        <f>(TREND($B$9:$C$9,$B$8:$C$8,C$13))*(About!$A$53)</f>
+        <f>(TREND($B$9:$C$9,$B$8:$C$8,C$13))*(About!$A$55)</f>
         <v>2678.8464425587467</v>
       </c>
       <c r="D14">
-        <f>(TREND($C$9:$D$9,$C$8:$D$8,D$13))*(About!$A$53)</f>
+        <f>(TREND($C$9:$D$9,$C$8:$D$8,D$13))*(About!$A$55)</f>
         <v>2683.529740535248</v>
       </c>
       <c r="E14">
-        <f>(TREND($C$9:$D$9,$C$8:$D$8,E$13))*(About!$A$53)</f>
+        <f>(TREND($C$9:$D$9,$C$8:$D$8,E$13))*(About!$A$55)</f>
         <v>2688.2130385117493</v>
       </c>
       <c r="F14">
-        <f>(TREND($C$9:$D$9,$C$8:$D$8,F$13))*(About!$A$53)</f>
+        <f>(TREND($C$9:$D$9,$C$8:$D$8,F$13))*(About!$A$55)</f>
         <v>2692.8963364882507</v>
       </c>
       <c r="G14">
-        <f>(TREND($C$9:$D$9,$C$8:$D$8,G$13))*(About!$A$53)</f>
+        <f>(TREND($C$9:$D$9,$C$8:$D$8,G$13))*(About!$A$55)</f>
         <v>2697.579634464752</v>
       </c>
       <c r="H14">
-        <f>(TREND($C$9:$D$9,$C$8:$D$8,H$13))*(About!$A$53)</f>
+        <f>(TREND($C$9:$D$9,$C$8:$D$8,H$13))*(About!$A$55)</f>
         <v>2702.2629324412533</v>
       </c>
       <c r="I14">
-        <f>(TREND($C$9:$D$9,$C$8:$D$8,I$13))*(About!$A$53)</f>
+        <f>(TREND($C$9:$D$9,$C$8:$D$8,I$13))*(About!$A$55)</f>
         <v>2706.9462304177546</v>
       </c>
       <c r="J14">
-        <f>(TREND($C$9:$D$9,$C$8:$D$8,J$13))*(About!$A$53)</f>
+        <f>(TREND($C$9:$D$9,$C$8:$D$8,J$13))*(About!$A$55)</f>
         <v>2711.6295283942559</v>
       </c>
       <c r="K14">
-        <f>(TREND($C$9:$D$9,$C$8:$D$8,K$13))*(About!$A$53)</f>
+        <f>(TREND($C$9:$D$9,$C$8:$D$8,K$13))*(About!$A$55)</f>
         <v>2716.3128263707572</v>
       </c>
       <c r="L14">
-        <f>(TREND($C$9:$D$9,$C$8:$D$8,L$13))*(About!$A$53)</f>
+        <f>(TREND($C$9:$D$9,$C$8:$D$8,L$13))*(About!$A$55)</f>
         <v>2720.9961243472585</v>
       </c>
       <c r="M14">
-        <f>(TREND($C$9:$D$9,$C$8:$D$8,M$13))*(About!$A$53)</f>
+        <f>(TREND($C$9:$D$9,$C$8:$D$8,M$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="N14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,N$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,N$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="O14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,O$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,O$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="P14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,P$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,P$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="Q14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,Q$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,Q$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="R14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,R$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,R$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="S14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,S$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,S$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="T14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,T$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,T$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="U14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,U$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,U$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="V14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,V$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,V$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="W14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,W$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,W$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="X14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,X$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,X$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="Y14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,Y$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,Y$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="Z14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,Z$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,Z$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="AA14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,AA$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,AA$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="AB14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,AB$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,AB$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="AC14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,AC$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,AC$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="AD14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,AD$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,AD$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="AE14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,AE$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,AE$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="AF14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,AF$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,AF$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
       <c r="AG14">
-        <f>(TREND($D$9:$F$9,$D$8:$F$8,AG$13))*(About!$A$53)</f>
+        <f>(TREND($D$9:$F$9,$D$8:$F$8,AG$13))*(About!$A$55)</f>
         <v>2725.6794223237598</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>457</v>
       </c>
       <c r="B15">
-        <f>(TREND($B$10:$C$10,$B$8:$C$8,B$13))*(About!$A$53)</f>
+        <f>(TREND($B$10:$C$10,$B$8:$C$8,B$13))*(About!$A$55)</f>
         <v>913.24310541775458</v>
       </c>
       <c r="C15">
-        <f>(TREND($B$10:$C$10,$B$8:$C$8,C$13))*(About!$A$53)</f>
+        <f>(TREND($B$10:$C$10,$B$8:$C$8,C$13))*(About!$A$55)</f>
         <v>913.24310541775458</v>
       </c>
       <c r="D15">
-        <f>(TREND($C$10:$D$10,$C$8:$D$8,D$13))*(About!$A$53)</f>
+        <f>(TREND($C$10:$D$10,$C$8:$D$8,D$13))*(About!$A$55)</f>
         <v>908.55980744125327</v>
       </c>
       <c r="E15">
-        <f>(TREND($C$10:$D$10,$C$8:$D$8,E$13))*(About!$A$53)</f>
+        <f>(TREND($C$10:$D$10,$C$8:$D$8,E$13))*(About!$A$55)</f>
         <v>903.87650946475196</v>
       </c>
       <c r="F15">
-        <f>(TREND($C$10:$D$10,$C$8:$D$8,F$13))*(About!$A$53)</f>
+        <f>(TREND($C$10:$D$10,$C$8:$D$8,F$13))*(About!$A$55)</f>
         <v>899.19321148825065</v>
       </c>
       <c r="G15">
-        <f>(TREND($C$10:$D$10,$C$8:$D$8,G$13))*(About!$A$53)</f>
+        <f>(TREND($C$10:$D$10,$C$8:$D$8,G$13))*(About!$A$55)</f>
         <v>894.50991351174935</v>
       </c>
       <c r="H15">
-        <f>(TREND($C$10:$D$10,$C$8:$D$8,H$13))*(About!$A$53)</f>
+        <f>(TREND($C$10:$D$10,$C$8:$D$8,H$13))*(About!$A$55)</f>
         <v>889.82661553524804</v>
       </c>
       <c r="I15">
-        <f>(TREND($C$10:$D$10,$C$8:$D$8,I$13))*(About!$A$53)</f>
+        <f>(TREND($C$10:$D$10,$C$8:$D$8,I$13))*(About!$A$55)</f>
         <v>885.14331755874673</v>
       </c>
       <c r="J15">
-        <f>(TREND($C$10:$D$10,$C$8:$D$8,J$13))*(About!$A$53)</f>
+        <f>(TREND($C$10:$D$10,$C$8:$D$8,J$13))*(About!$A$55)</f>
         <v>880.46001958224542</v>
       </c>
       <c r="K15">
-        <f>(TREND($C$10:$D$10,$C$8:$D$8,K$13))*(About!$A$53)</f>
+        <f>(TREND($C$10:$D$10,$C$8:$D$8,K$13))*(About!$A$55)</f>
         <v>875.77672160574411</v>
       </c>
       <c r="L15">
-        <f>(TREND($C$10:$D$10,$C$8:$D$8,L$13))*(About!$A$53)</f>
+        <f>(TREND($C$10:$D$10,$C$8:$D$8,L$13))*(About!$A$55)</f>
         <v>871.09342362924281</v>
       </c>
       <c r="M15">
-        <f>(TREND($C$10:$D$10,$C$8:$D$8,M$13))*(About!$A$53)</f>
+        <f>(TREND($C$10:$D$10,$C$8:$D$8,M$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="N15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,N$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,N$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="O15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,O$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,O$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="P15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,P$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,P$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="Q15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,Q$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,Q$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="R15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,R$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,R$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="S15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,S$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,S$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="T15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,T$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,T$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="U15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,U$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,U$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="V15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,V$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,V$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="W15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,W$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,W$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="X15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,X$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,X$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="Y15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,Y$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,Y$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="Z15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,Z$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,Z$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="AA15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,AA$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,AA$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="AB15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,AB$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,AB$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="AC15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,AC$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,AC$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="AD15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,AD$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,AD$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="AE15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,AE$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,AE$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="AF15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,AF$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,AF$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
       <c r="AG15">
-        <f>(TREND($D$10:$F$10,$D$8:$F$8,AG$13))*(About!$A$53)</f>
+        <f>(TREND($D$10:$F$10,$D$8:$F$8,AG$13))*(About!$A$55)</f>
         <v>866.4101256527415</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>466</v>
       </c>
       <c r="B16">
-        <f>(TREND($B$11:$C$11,$B$8:$C$8,B$13))*(About!$A$53)</f>
+        <f>(TREND($B$11:$C$11,$B$8:$C$8,B$13))*(About!$A$55)</f>
         <v>374.66383812010446</v>
       </c>
       <c r="C16">
-        <f>(TREND($B$11:$C$11,$B$8:$C$8,C$13))*(About!$A$53)</f>
+        <f>(TREND($B$11:$C$11,$B$8:$C$8,C$13))*(About!$A$55)</f>
         <v>374.66383812010446</v>
       </c>
       <c r="D16">
-        <f>(TREND($C$11:$D$11,$C$8:$D$8,D$13))*(About!$A$53)</f>
+        <f>(TREND($C$11:$D$11,$C$8:$D$8,D$13))*(About!$A$55)</f>
         <v>369.98054014360315</v>
       </c>
       <c r="E16">
-        <f>(TREND($C$11:$D$11,$C$8:$D$8,E$13))*(About!$A$53)</f>
+        <f>(TREND($C$11:$D$11,$C$8:$D$8,E$13))*(About!$A$55)</f>
         <v>365.29724216710184</v>
       </c>
       <c r="F16">
-        <f>(TREND($C$11:$D$11,$C$8:$D$8,F$13))*(About!$A$53)</f>
+        <f>(TREND($C$11:$D$11,$C$8:$D$8,F$13))*(About!$A$55)</f>
         <v>360.61394419060053</v>
       </c>
       <c r="G16">
-        <f>(TREND($C$11:$D$11,$C$8:$D$8,G$13))*(About!$A$53)</f>
+        <f>(TREND($C$11:$D$11,$C$8:$D$8,G$13))*(About!$A$55)</f>
         <v>355.93064621409923</v>
       </c>
       <c r="H16">
-        <f>(TREND($C$11:$D$11,$C$8:$D$8,H$13))*(About!$A$53)</f>
+        <f>(TREND($C$11:$D$11,$C$8:$D$8,H$13))*(About!$A$55)</f>
         <v>351.24734823759792</v>
       </c>
       <c r="I16">
-        <f>(TREND($C$11:$D$11,$C$8:$D$8,I$13))*(About!$A$53)</f>
+        <f>(TREND($C$11:$D$11,$C$8:$D$8,I$13))*(About!$A$55)</f>
         <v>346.56405026109661</v>
       </c>
       <c r="J16">
-        <f>(TREND($C$11:$D$11,$C$8:$D$8,J$13))*(About!$A$53)</f>
+        <f>(TREND($C$11:$D$11,$C$8:$D$8,J$13))*(About!$A$55)</f>
         <v>341.8807522845953</v>
       </c>
       <c r="K16">
-        <f>(TREND($C$11:$D$11,$C$8:$D$8,K$13))*(About!$A$53)</f>
+        <f>(TREND($C$11:$D$11,$C$8:$D$8,K$13))*(About!$A$55)</f>
         <v>337.197454308094</v>
       </c>
       <c r="L16">
-        <f>(TREND($C$11:$D$11,$C$8:$D$8,L$13))*(About!$A$53)</f>
+        <f>(TREND($C$11:$D$11,$C$8:$D$8,L$13))*(About!$A$55)</f>
         <v>332.51415633159269</v>
       </c>
       <c r="M16">
-        <f>(TREND($C$11:$D$11,$C$8:$D$8,M$13))*(About!$A$53)</f>
+        <f>(TREND($C$11:$D$11,$C$8:$D$8,M$13))*(About!$A$55)</f>
         <v>327.83085835509138</v>
       </c>
       <c r="N16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,N$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,N$13))*(About!$A$55)</f>
         <v>318.46426240208876</v>
       </c>
       <c r="O16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,O$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,O$13))*(About!$A$55)</f>
         <v>309.09766644908615</v>
       </c>
       <c r="P16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,P$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,P$13))*(About!$A$55)</f>
         <v>299.73107049608353</v>
       </c>
       <c r="Q16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,Q$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,Q$13))*(About!$A$55)</f>
         <v>290.36447454308092</v>
       </c>
       <c r="R16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,R$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,R$13))*(About!$A$55)</f>
         <v>280.99787859007836</v>
       </c>
       <c r="S16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,S$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,S$13))*(About!$A$55)</f>
         <v>271.63128263707574</v>
       </c>
       <c r="T16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,T$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,T$13))*(About!$A$55)</f>
         <v>262.26468668407313</v>
       </c>
       <c r="U16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,U$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,U$13))*(About!$A$55)</f>
         <v>252.89809073107051</v>
       </c>
       <c r="V16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,V$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,V$13))*(About!$A$55)</f>
         <v>243.53149477806789</v>
       </c>
       <c r="W16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,W$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,W$13))*(About!$A$55)</f>
         <v>234.16489882506528</v>
       </c>
       <c r="X16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,X$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,X$13))*(About!$A$55)</f>
         <v>224.79830287206266</v>
       </c>
       <c r="Y16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,Y$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,Y$13))*(About!$A$55)</f>
         <v>215.43170691906005</v>
       </c>
       <c r="Z16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,Z$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,Z$13))*(About!$A$55)</f>
         <v>206.06511096605743</v>
       </c>
       <c r="AA16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,AA$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,AA$13))*(About!$A$55)</f>
         <v>196.69851501305484</v>
       </c>
       <c r="AB16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,AB$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,AB$13))*(About!$A$55)</f>
         <v>187.33191906005223</v>
       </c>
       <c r="AC16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,AC$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,AC$13))*(About!$A$55)</f>
         <v>177.96532310704961</v>
       </c>
       <c r="AD16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,AD$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,AD$13))*(About!$A$55)</f>
         <v>168.598727154047</v>
       </c>
       <c r="AE16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,AE$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,AE$13))*(About!$A$55)</f>
         <v>159.23213120104438</v>
       </c>
       <c r="AF16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,AF$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,AF$13))*(About!$A$55)</f>
         <v>149.86553524804177</v>
       </c>
       <c r="AG16">
-        <f>(TREND($D$11:$F$11,$D$8:$F$8,AG$13))*(About!$A$53)</f>
+        <f>(TREND($D$11:$F$11,$D$8:$F$8,AG$13))*(About!$A$55)</f>
         <v>140.49893929503918</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A18" s="24" t="s">
         <v>404</v>
       </c>
@@ -45492,7 +45506,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -45625,7 +45639,7 @@
         <v>6.8976128566630268E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -45758,7 +45772,7 @@
         <v>1.8524346005834896E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>399</v>
       </c>
@@ -45891,7 +45905,7 @@
         <v>1.083603062466778E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A23" s="72" t="s">
         <v>415</v>
       </c>
@@ -45928,7 +45942,7 @@
       <c r="AF23" s="73"/>
       <c r="AG23" s="73"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A24" s="24" t="s">
         <v>406</v>
       </c>
@@ -46029,7 +46043,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -46162,7 +46176,7 @@
         <v>15388289.913464736</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -46295,7 +46309,7 @@
         <v>14540025.843359135</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A28" s="24" t="s">
         <v>371</v>
       </c>
@@ -46315,7 +46329,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>452</v>
       </c>
@@ -46340,7 +46354,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>453</v>
       </c>
@@ -46365,7 +46379,7 @@
         <v>-475</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A32" s="24" t="s">
         <v>398</v>
       </c>
@@ -46466,7 +46480,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>456</v>
       </c>
@@ -46599,7 +46613,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>457</v>
       </c>
@@ -46732,7 +46746,7 @@
         <v>-475</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A36" s="24" t="s">
         <v>404</v>
       </c>
@@ -46833,7 +46847,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -46966,7 +46980,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -47099,7 +47113,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A40" s="23" t="s">
         <v>416</v>
       </c>
@@ -47136,7 +47150,7 @@
       <c r="AF40" s="54"/>
       <c r="AG40" s="54"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A41" s="72" t="s">
         <v>405</v>
       </c>
@@ -47173,12 +47187,12 @@
       <c r="AF41" s="73"/>
       <c r="AG41" s="73"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A42" s="24" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>446</v>
       </c>
@@ -47186,7 +47200,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>447</v>
       </c>
@@ -47194,7 +47208,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A47" s="24" t="s">
         <v>449</v>
       </c>
@@ -47217,7 +47231,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>452</v>
       </c>
@@ -47242,7 +47256,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>453</v>
       </c>
@@ -47267,7 +47281,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>451</v>
       </c>
@@ -47293,7 +47307,7 @@
         <v>60.296369222717402</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A52" s="24" t="s">
         <v>450</v>
       </c>
@@ -47394,406 +47408,406 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>456</v>
       </c>
       <c r="B53">
-        <f>(TREND($C$48:$D$48,$C$47:$D$47,B$32))*(About!$A$53)</f>
+        <f>(TREND($C$48:$D$48,$C$47:$D$47,B$32))*(About!$A$55)</f>
         <v>5.0345453247389038</v>
       </c>
       <c r="C53">
-        <f>(TREND($C$48:$D$48,$C$47:$D$47,C$32))*(About!$A$53)</f>
+        <f>(TREND($C$48:$D$48,$C$47:$D$47,C$32))*(About!$A$55)</f>
         <v>5.0345453247389038</v>
       </c>
       <c r="D53">
-        <f>(TREND($D$48:$E$48,$D$47:$E$47,D$32))*(About!$A$53)</f>
+        <f>(TREND($D$48:$E$48,$D$47:$E$47,D$32))*(About!$A$55)</f>
         <v>5.0462535696801591</v>
       </c>
       <c r="E53">
-        <f>(TREND($D$48:$E$48,$D$47:$E$47,E$32))*(About!$A$53)</f>
+        <f>(TREND($D$48:$E$48,$D$47:$E$47,E$32))*(About!$A$55)</f>
         <v>5.0579618146214118</v>
       </c>
       <c r="F53">
-        <f>(TREND($D$48:$E$48,$D$47:$E$47,F$32))*(About!$A$53)</f>
+        <f>(TREND($D$48:$E$48,$D$47:$E$47,F$32))*(About!$A$55)</f>
         <v>5.0696700595626645</v>
       </c>
       <c r="G53">
-        <f>(TREND($D$48:$E$48,$D$47:$E$47,G$32))*(About!$A$53)</f>
+        <f>(TREND($D$48:$E$48,$D$47:$E$47,G$32))*(About!$A$55)</f>
         <v>5.0813783045039171</v>
       </c>
       <c r="H53">
-        <f>(TREND($D$48:$E$48,$D$47:$E$47,H$32))*(About!$A$53)</f>
+        <f>(TREND($D$48:$E$48,$D$47:$E$47,H$32))*(About!$A$55)</f>
         <v>5.0930865494451698</v>
       </c>
       <c r="I53">
-        <f>(TREND($D$48:$E$48,$D$47:$E$47,I$32))*(About!$A$53)</f>
+        <f>(TREND($D$48:$E$48,$D$47:$E$47,I$32))*(About!$A$55)</f>
         <v>5.104794794386426</v>
       </c>
       <c r="J53">
-        <f>(TREND($D$48:$E$48,$D$47:$E$47,J$32))*(About!$A$53)</f>
+        <f>(TREND($D$48:$E$48,$D$47:$E$47,J$32))*(About!$A$55)</f>
         <v>5.1165030393276787</v>
       </c>
       <c r="K53">
-        <f>(TREND($D$48:$E$48,$D$47:$E$47,K$32))*(About!$A$53)</f>
+        <f>(TREND($D$48:$E$48,$D$47:$E$47,K$32))*(About!$A$55)</f>
         <v>5.1282112842689305</v>
       </c>
       <c r="L53">
-        <f>(TREND($D$48:$E$48,$D$47:$E$47,L$32))*(About!$A$53)</f>
+        <f>(TREND($D$48:$E$48,$D$47:$E$47,L$32))*(About!$A$55)</f>
         <v>5.1399195292101831</v>
       </c>
       <c r="M53">
-        <f>(TREND($D$48:$E$48,$D$47:$E$47,M$32))*(About!$A$53)</f>
+        <f>(TREND($D$48:$E$48,$D$47:$E$47,M$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="N53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,N$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,N$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="O53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,O$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,O$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="P53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,P$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,P$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="Q53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,Q$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,Q$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="R53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,R$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,R$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="S53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,S$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,S$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="T53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,T$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,T$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="U53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,U$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,U$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="V53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,V$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,V$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="W53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,W$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,W$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="X53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,X$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,X$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="Y53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,Y$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,Y$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="Z53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,Z$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,Z$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="AA53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,AA$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,AA$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="AB53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,AB$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,AB$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="AC53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,AC$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,AC$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="AD53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,AD$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,AD$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="AE53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,AE$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,AE$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="AF53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,AF$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,AF$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
       <c r="AG53">
-        <f>(TREND($E$48:$G$48,$E$47:$G$47,AG$32))*(About!$A$53)</f>
+        <f>(TREND($E$48:$G$48,$E$47:$G$47,AG$32))*(About!$A$55)</f>
         <v>5.1516277741514358</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>457</v>
       </c>
       <c r="B54">
-        <f>(TREND($C$49:$D$49,$C$47:$D$47,B$32))*(About!$A$53)</f>
+        <f>(TREND($C$49:$D$49,$C$47:$D$47,B$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="C54">
-        <f>(TREND($C$49:$D$49,$C$47:$D$47,C$32))*(About!$A$53)</f>
+        <f>(TREND($C$49:$D$49,$C$47:$D$47,C$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="D54">
-        <f>(TREND($D$49:$E$49,$D$47:$E$47,D$32))*(About!$A$53)</f>
+        <f>(TREND($D$49:$E$49,$D$47:$E$47,D$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="E54">
-        <f>(TREND($D$49:$E$49,$D$47:$E$47,E$32))*(About!$A$53)</f>
+        <f>(TREND($D$49:$E$49,$D$47:$E$47,E$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="F54">
-        <f>(TREND($D$49:$E$49,$D$47:$E$47,F$32))*(About!$A$53)</f>
+        <f>(TREND($D$49:$E$49,$D$47:$E$47,F$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="G54">
-        <f>(TREND($D$49:$E$49,$D$47:$E$47,G$32))*(About!$A$53)</f>
+        <f>(TREND($D$49:$E$49,$D$47:$E$47,G$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="H54">
-        <f>(TREND($D$49:$E$49,$D$47:$E$47,H$32))*(About!$A$53)</f>
+        <f>(TREND($D$49:$E$49,$D$47:$E$47,H$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="I54">
-        <f>(TREND($D$49:$E$49,$D$47:$E$47,I$32))*(About!$A$53)</f>
+        <f>(TREND($D$49:$E$49,$D$47:$E$47,I$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="J54">
-        <f>(TREND($D$49:$E$49,$D$47:$E$47,J$32))*(About!$A$53)</f>
+        <f>(TREND($D$49:$E$49,$D$47:$E$47,J$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="K54">
-        <f>(TREND($D$49:$E$49,$D$47:$E$47,K$32))*(About!$A$53)</f>
+        <f>(TREND($D$49:$E$49,$D$47:$E$47,K$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="L54">
-        <f>(TREND($D$49:$E$49,$D$47:$E$47,L$32))*(About!$A$53)</f>
+        <f>(TREND($D$49:$E$49,$D$47:$E$47,L$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="M54">
-        <f>(TREND($D$49:$E$49,$D$47:$E$47,M$32))*(About!$A$53)</f>
+        <f>(TREND($D$49:$E$49,$D$47:$E$47,M$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="N54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,N$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,N$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="O54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,O$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,O$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="P54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,P$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,P$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="Q54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,Q$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,Q$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="R54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,R$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,R$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="S54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,S$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,S$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="T54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,T$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,T$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="U54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,U$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,U$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="V54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,V$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,V$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="W54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,W$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,W$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="X54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,X$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,X$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="Y54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,Y$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,Y$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="Z54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,Z$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,Z$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="AA54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,AA$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,AA$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="AB54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,AB$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,AB$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="AC54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,AC$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,AC$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="AD54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,AD$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,AD$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="AE54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,AE$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,AE$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="AF54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,AF$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,AF$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
       <c r="AG54">
-        <f>(TREND($E$49:$G$49,$E$47:$G$47,AG$32))*(About!$A$53)</f>
+        <f>(TREND($E$49:$G$49,$E$47:$G$47,AG$32))*(About!$A$55)</f>
         <v>15.454883322454307</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>458</v>
       </c>
       <c r="B55">
-        <f>((B50-D50)/(B47-D47)*(B52-C52)*(About!$A$55))+C55</f>
+        <f>((B50-D50)/(B47-D47)*(B52-C52)*(About!$A$57))+C55</f>
         <v>83.416720345656572</v>
       </c>
       <c r="C55">
-        <f>(TREND($D$50:$E$50,$D$47:$E$47,C$32))*(About!$A$55)</f>
+        <f>(TREND($D$50:$E$50,$D$47:$E$47,C$32))*(About!$A$57)</f>
         <v>81.312170061706524</v>
       </c>
       <c r="D55">
-        <f>(TREND($D$50:$E$50,$D$47:$E$47,D$32))*(About!$A$55)</f>
+        <f>(TREND($D$50:$E$50,$D$47:$E$47,D$32))*(About!$A$57)</f>
         <v>80.164233543188487</v>
       </c>
       <c r="E55">
-        <f>(TREND($D$50:$E$50,$D$47:$E$47,E$32))*(About!$A$55)</f>
+        <f>(TREND($D$50:$E$50,$D$47:$E$47,E$32))*(About!$A$57)</f>
         <v>79.016297024670024</v>
       </c>
       <c r="F55">
-        <f>(TREND($D$50:$E$50,$D$47:$E$47,F$32))*(About!$A$55)</f>
+        <f>(TREND($D$50:$E$50,$D$47:$E$47,F$32))*(About!$A$57)</f>
         <v>77.868360506151987</v>
       </c>
       <c r="G55">
-        <f>(TREND($D$50:$E$50,$D$47:$E$47,G$32))*(About!$A$55)</f>
+        <f>(TREND($D$50:$E$50,$D$47:$E$47,G$32))*(About!$A$57)</f>
         <v>76.72042398763395</v>
       </c>
       <c r="H55">
-        <f>(TREND($D$50:$E$50,$D$47:$E$47,H$32))*(About!$A$55)</f>
+        <f>(TREND($D$50:$E$50,$D$47:$E$47,H$32))*(About!$A$57)</f>
         <v>75.572487469115472</v>
       </c>
       <c r="I55">
-        <f>(TREND($D$50:$E$50,$D$47:$E$47,I$32))*(About!$A$55)</f>
+        <f>(TREND($D$50:$E$50,$D$47:$E$47,I$32))*(About!$A$57)</f>
         <v>74.42455095059745</v>
       </c>
       <c r="J55">
-        <f>(TREND($D$50:$E$50,$D$47:$E$47,J$32))*(About!$A$55)</f>
+        <f>(TREND($D$50:$E$50,$D$47:$E$47,J$32))*(About!$A$57)</f>
         <v>73.276614432078972</v>
       </c>
       <c r="K55">
-        <f>(TREND($D$50:$E$50,$D$47:$E$47,K$32))*(About!$A$55)</f>
+        <f>(TREND($D$50:$E$50,$D$47:$E$47,K$32))*(About!$A$57)</f>
         <v>72.128677913560935</v>
       </c>
       <c r="L55">
-        <f>(TREND($D$50:$E$50,$D$47:$E$47,L$32))*(About!$A$55)</f>
+        <f>(TREND($D$50:$E$50,$D$47:$E$47,L$32))*(About!$A$57)</f>
         <v>70.980741395042898</v>
       </c>
       <c r="M55">
-        <f>(TREND($D$50:$E$50,$D$47:$E$47,M$32))*(About!$A$55)</f>
+        <f>(TREND($D$50:$E$50,$D$47:$E$47,M$32))*(About!$A$57)</f>
         <v>69.832804876524435</v>
       </c>
       <c r="N55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,N$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,N$32))*(About!$A$57)</f>
         <v>68.699622777166127</v>
       </c>
       <c r="O55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,O$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,O$32))*(About!$A$57)</f>
         <v>68.091999373540531</v>
       </c>
       <c r="P55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,P$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,P$32))*(About!$A$57)</f>
         <v>67.484375969914936</v>
       </c>
       <c r="Q55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,Q$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,Q$32))*(About!$A$57)</f>
         <v>66.876752566289341</v>
       </c>
       <c r="R55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,R$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,R$32))*(About!$A$57)</f>
         <v>66.269129162663745</v>
       </c>
       <c r="S55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,S$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,S$32))*(About!$A$57)</f>
         <v>65.66150575903815</v>
       </c>
       <c r="T55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,T$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,T$32))*(About!$A$57)</f>
         <v>65.053882355412554</v>
       </c>
       <c r="U55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,U$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,U$32))*(About!$A$57)</f>
         <v>64.446258951786959</v>
       </c>
       <c r="V55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,V$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,V$32))*(About!$A$57)</f>
         <v>63.838635548161371</v>
       </c>
       <c r="W55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,W$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,W$32))*(About!$A$57)</f>
         <v>63.231012144535555</v>
       </c>
       <c r="X55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,X$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,X$32))*(About!$A$57)</f>
         <v>62.623388740909959</v>
       </c>
       <c r="Y55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,Y$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,Y$32))*(About!$A$57)</f>
         <v>62.015765337284364</v>
       </c>
       <c r="Z55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,Z$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,Z$32))*(About!$A$57)</f>
         <v>61.408141933658769</v>
       </c>
       <c r="AA55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,AA$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,AA$32))*(About!$A$57)</f>
         <v>60.80051853003318</v>
       </c>
       <c r="AB55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,AB$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,AB$32))*(About!$A$57)</f>
         <v>60.192895126407585</v>
       </c>
       <c r="AC55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,AC$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,AC$32))*(About!$A$57)</f>
         <v>59.585271722781989</v>
       </c>
       <c r="AD55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,AD$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,AD$32))*(About!$A$57)</f>
         <v>58.977648319156394</v>
       </c>
       <c r="AE55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,AE$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,AE$32))*(About!$A$57)</f>
         <v>58.370024915530799</v>
       </c>
       <c r="AF55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,AF$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,AF$32))*(About!$A$57)</f>
         <v>57.762401511905203</v>
       </c>
       <c r="AG55">
-        <f>(TREND($E$50:$G$50,$E$47:$G$47,AG$32))*(About!$A$55)</f>
+        <f>(TREND($E$50:$G$50,$E$47:$G$47,AG$32))*(About!$A$57)</f>
         <v>57.154778108279608</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A57" s="24" t="s">
         <v>433</v>
       </c>
@@ -47894,7 +47908,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -48027,7 +48041,7 @@
         <v>7.42054085818039E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -48160,7 +48174,7 @@
         <v>5.9503274523152538E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A61" s="72" t="s">
         <v>415</v>
       </c>
@@ -48197,12 +48211,12 @@
       <c r="AF61" s="73"/>
       <c r="AG61" s="73"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A62" s="24" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>446</v>
       </c>
@@ -48210,7 +48224,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>447</v>
       </c>
@@ -48218,7 +48232,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A67" s="24" t="s">
         <v>449</v>
       </c>
@@ -48241,7 +48255,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>452</v>
       </c>
@@ -48267,7 +48281,7 @@
       </c>
       <c r="K68" s="56"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>453</v>
       </c>
@@ -48292,7 +48306,7 @@
         <v>17.333333333333332</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>451</v>
       </c>
@@ -48318,7 +48332,7 @@
         <v>184.45</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A72" s="24" t="s">
         <v>450</v>
       </c>
@@ -48419,406 +48433,406 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>456</v>
       </c>
       <c r="B73">
-        <f>(TREND($C$68:$D$68,$C$67:$D$67,B$32))*(About!$A$53)</f>
+        <f>(TREND($C$68:$D$68,$C$67:$D$67,B$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="C73">
-        <f>(TREND($C$68:$D$68,$C$67:$D$67,C$32))*(About!$A$53)</f>
+        <f>(TREND($C$68:$D$68,$C$67:$D$67,C$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="D73">
-        <f>(TREND($D$68:$E$68,$D$67:$E$67,D$32))*(About!$A$53)</f>
+        <f>(TREND($D$68:$E$68,$D$67:$E$67,D$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="E73">
-        <f>(TREND($D$68:$E$68,$D$67:$E$67,E$32))*(About!$A$53)</f>
+        <f>(TREND($D$68:$E$68,$D$67:$E$67,E$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="F73">
-        <f>(TREND($D$68:$E$68,$D$67:$E$67,F$32))*(About!$A$53)</f>
+        <f>(TREND($D$68:$E$68,$D$67:$E$67,F$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="G73">
-        <f>(TREND($D$68:$E$68,$D$67:$E$67,G$32))*(About!$A$53)</f>
+        <f>(TREND($D$68:$E$68,$D$67:$E$67,G$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="H73">
-        <f>(TREND($D$68:$E$68,$D$67:$E$67,H$32))*(About!$A$53)</f>
+        <f>(TREND($D$68:$E$68,$D$67:$E$67,H$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="I73">
-        <f>(TREND($D$68:$E$68,$D$67:$E$67,I$32))*(About!$A$53)</f>
+        <f>(TREND($D$68:$E$68,$D$67:$E$67,I$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="J73">
-        <f>(TREND($D$68:$E$68,$D$67:$E$67,J$32))*(About!$A$53)</f>
+        <f>(TREND($D$68:$E$68,$D$67:$E$67,J$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="K73">
-        <f>(TREND($D$68:$E$68,$D$67:$E$67,K$32))*(About!$A$53)</f>
+        <f>(TREND($D$68:$E$68,$D$67:$E$67,K$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="L73">
-        <f>(TREND($D$68:$E$68,$D$67:$E$67,L$32))*(About!$A$53)</f>
+        <f>(TREND($D$68:$E$68,$D$67:$E$67,L$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="M73">
-        <f>(TREND($D$68:$E$68,$D$67:$E$67,M$32))*(About!$A$53)</f>
+        <f>(TREND($D$68:$E$68,$D$67:$E$67,M$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="N73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,N$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,N$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="O73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,O$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,O$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="P73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,P$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,P$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="Q73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,Q$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,Q$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="R73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,R$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,R$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="S73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,S$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,S$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="T73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,T$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,T$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="U73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,U$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,U$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="V73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,V$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,V$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="W73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,W$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,W$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="X73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,X$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,X$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="Y73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,Y$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,Y$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="Z73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,Z$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,Z$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="AA73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,AA$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,AA$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="AB73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,AB$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,AB$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="AC73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,AC$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,AC$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="AD73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,AD$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,AD$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="AE73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,AE$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,AE$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="AF73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,AF$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,AF$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
       <c r="AG73">
-        <f>(TREND($E$68:$G$68,$E$67:$G$67,AG$32))*(About!$A$53)</f>
+        <f>(TREND($E$68:$G$68,$E$67:$G$67,AG$32))*(About!$A$55)</f>
         <v>18.238974531600562</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>457</v>
       </c>
       <c r="B74">
-        <f>(TREND($C$69:$D$69,$C$67:$D$67,B$32))*(About!$A$53)</f>
+        <f>(TREND($C$69:$D$69,$C$67:$D$67,B$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="C74">
-        <f>(TREND($C$69:$D$69,$C$67:$D$67,C$32))*(About!$A$53)</f>
+        <f>(TREND($C$69:$D$69,$C$67:$D$67,C$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="D74">
-        <f>(TREND($D$69:$E$69,$D$67:$E$67,D$32))*(About!$A$53)</f>
+        <f>(TREND($D$69:$E$69,$D$67:$E$67,D$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="E74">
-        <f>(TREND($D$69:$E$69,$D$67:$E$67,E$32))*(About!$A$53)</f>
+        <f>(TREND($D$69:$E$69,$D$67:$E$67,E$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="F74">
-        <f>(TREND($D$69:$E$69,$D$67:$E$67,F$32))*(About!$A$53)</f>
+        <f>(TREND($D$69:$E$69,$D$67:$E$67,F$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="G74">
-        <f>(TREND($D$69:$E$69,$D$67:$E$67,G$32))*(About!$A$53)</f>
+        <f>(TREND($D$69:$E$69,$D$67:$E$67,G$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="H74">
-        <f>(TREND($D$69:$E$69,$D$67:$E$67,H$32))*(About!$A$53)</f>
+        <f>(TREND($D$69:$E$69,$D$67:$E$67,H$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="I74">
-        <f>(TREND($D$69:$E$69,$D$67:$E$67,I$32))*(About!$A$53)</f>
+        <f>(TREND($D$69:$E$69,$D$67:$E$67,I$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="J74">
-        <f>(TREND($D$69:$E$69,$D$67:$E$67,J$32))*(About!$A$53)</f>
+        <f>(TREND($D$69:$E$69,$D$67:$E$67,J$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="K74">
-        <f>(TREND($D$69:$E$69,$D$67:$E$67,K$32))*(About!$A$53)</f>
+        <f>(TREND($D$69:$E$69,$D$67:$E$67,K$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="L74">
-        <f>(TREND($D$69:$E$69,$D$67:$E$67,L$32))*(About!$A$53)</f>
+        <f>(TREND($D$69:$E$69,$D$67:$E$67,L$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="M74">
-        <f>(TREND($D$69:$E$69,$D$67:$E$67,M$32))*(About!$A$53)</f>
+        <f>(TREND($D$69:$E$69,$D$67:$E$67,M$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="N74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,N$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,N$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="O74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,O$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,O$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="P74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,P$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,P$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="Q74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,Q$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,Q$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="R74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,R$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,R$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="S74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,S$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,S$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="T74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,T$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,T$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="U74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,U$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,U$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="V74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,V$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,V$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="W74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,W$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,W$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="X74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,X$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,X$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="Y74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,Y$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,Y$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="Z74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,Z$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,Z$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="AA74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,AA$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,AA$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="AB74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,AB$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,AB$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="AC74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,AC$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,AC$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="AD74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,AD$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,AD$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="AE74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,AE$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,AE$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="AF74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,AF$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,AF$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
       <c r="AG74">
-        <f>(TREND($E$69:$G$69,$E$67:$G$67,AG$32))*(About!$A$53)</f>
+        <f>(TREND($E$69:$G$69,$E$67:$G$67,AG$32))*(About!$A$55)</f>
         <v>16.235432985204525</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>458</v>
       </c>
       <c r="B75">
-        <f>((B70-D70)/(B67-D67)*(B72-C72))*(About!$A$55)+C75</f>
+        <f>((B70-D70)/(B67-D67)*(B72-C72))*(About!$A$57)+C75</f>
         <v>279.34485045339261</v>
       </c>
       <c r="C75">
-        <f>(TREND($D$70:$E$70,$D$67:$E$67,C$32))*(About!$A$55)</f>
+        <f>(TREND($D$70:$E$70,$D$67:$E$67,C$32))*(About!$A$57)</f>
         <v>275.04349624577293</v>
       </c>
       <c r="D75">
-        <f>(TREND($D$70:$E$70,$D$67:$E$67,D$32))*(About!$A$55)</f>
+        <f>(TREND($D$70:$E$70,$D$67:$E$67,D$32))*(About!$A$57)</f>
         <v>271.19875219434124</v>
       </c>
       <c r="E75">
-        <f>(TREND($D$70:$E$70,$D$67:$E$67,E$32))*(About!$A$55)</f>
+        <f>(TREND($D$70:$E$70,$D$67:$E$67,E$32))*(About!$A$57)</f>
         <v>267.35400814291046</v>
       </c>
       <c r="F75">
-        <f>(TREND($D$70:$E$70,$D$67:$E$67,F$32))*(About!$A$55)</f>
+        <f>(TREND($D$70:$E$70,$D$67:$E$67,F$32))*(About!$A$57)</f>
         <v>263.50926409147877</v>
       </c>
       <c r="G75">
-        <f>(TREND($D$70:$E$70,$D$67:$E$67,G$32))*(About!$A$55)</f>
+        <f>(TREND($D$70:$E$70,$D$67:$E$67,G$32))*(About!$A$57)</f>
         <v>259.66452004004708</v>
       </c>
       <c r="H75">
-        <f>(TREND($D$70:$E$70,$D$67:$E$67,H$32))*(About!$A$55)</f>
+        <f>(TREND($D$70:$E$70,$D$67:$E$67,H$32))*(About!$A$57)</f>
         <v>255.81977598861545</v>
       </c>
       <c r="I75">
-        <f>(TREND($D$70:$E$70,$D$67:$E$67,I$32))*(About!$A$55)</f>
+        <f>(TREND($D$70:$E$70,$D$67:$E$67,I$32))*(About!$A$57)</f>
         <v>251.97503193718379</v>
       </c>
       <c r="J75">
-        <f>(TREND($D$70:$E$70,$D$67:$E$67,J$32))*(About!$A$55)</f>
+        <f>(TREND($D$70:$E$70,$D$67:$E$67,J$32))*(About!$A$57)</f>
         <v>248.1302878857521</v>
       </c>
       <c r="K75">
-        <f>(TREND($D$70:$E$70,$D$67:$E$67,K$32))*(About!$A$55)</f>
+        <f>(TREND($D$70:$E$70,$D$67:$E$67,K$32))*(About!$A$57)</f>
         <v>244.28554383432132</v>
       </c>
       <c r="L75">
-        <f>(TREND($D$70:$E$70,$D$67:$E$67,L$32))*(About!$A$55)</f>
+        <f>(TREND($D$70:$E$70,$D$67:$E$67,L$32))*(About!$A$57)</f>
         <v>240.44079978288966</v>
       </c>
       <c r="M75">
-        <f>(TREND($D$70:$E$70,$D$67:$E$67,M$32))*(About!$A$55)</f>
+        <f>(TREND($D$70:$E$70,$D$67:$E$67,M$32))*(About!$A$57)</f>
         <v>236.59605573145797</v>
       </c>
       <c r="N75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,N$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,N$32))*(About!$A$57)</f>
         <v>232.58906544927183</v>
       </c>
       <c r="O75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,O$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,O$32))*(About!$A$57)</f>
         <v>229.58163311439381</v>
       </c>
       <c r="P75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,P$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,P$32))*(About!$A$57)</f>
         <v>226.57420077951667</v>
       </c>
       <c r="Q75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,Q$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,Q$32))*(About!$A$57)</f>
         <v>223.56676844463868</v>
       </c>
       <c r="R75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,R$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,R$32))*(About!$A$57)</f>
         <v>220.55933610976066</v>
       </c>
       <c r="S75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,S$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,S$32))*(About!$A$57)</f>
         <v>217.55190377488353</v>
       </c>
       <c r="T75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,T$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,T$32))*(About!$A$57)</f>
         <v>214.54447144000551</v>
       </c>
       <c r="U75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,U$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,U$32))*(About!$A$57)</f>
         <v>211.53703910512749</v>
       </c>
       <c r="V75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,V$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,V$32))*(About!$A$57)</f>
         <v>208.52960677025035</v>
       </c>
       <c r="W75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,W$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,W$32))*(About!$A$57)</f>
         <v>205.52217443537236</v>
       </c>
       <c r="X75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,X$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,X$32))*(About!$A$57)</f>
         <v>202.51474210049435</v>
       </c>
       <c r="Y75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,Y$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,Y$32))*(About!$A$57)</f>
         <v>199.50730976561721</v>
       </c>
       <c r="Z75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,Z$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,Z$32))*(About!$A$57)</f>
         <v>196.49987743073919</v>
       </c>
       <c r="AA75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,AA$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,AA$32))*(About!$A$57)</f>
         <v>193.49244509586205</v>
       </c>
       <c r="AB75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,AB$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,AB$32))*(About!$A$57)</f>
         <v>190.48501276098403</v>
       </c>
       <c r="AC75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,AC$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,AC$32))*(About!$A$57)</f>
         <v>187.47758042610604</v>
       </c>
       <c r="AD75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,AD$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,AD$32))*(About!$A$57)</f>
         <v>184.47014809122888</v>
       </c>
       <c r="AE75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,AE$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,AE$32))*(About!$A$57)</f>
         <v>181.46271575635089</v>
       </c>
       <c r="AF75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,AF$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,AF$32))*(About!$A$57)</f>
         <v>178.45528342147287</v>
       </c>
       <c r="AG75">
-        <f>(TREND($E$70:$G$70,$E$67:$G$67,AG$32))*(About!$A$55)</f>
+        <f>(TREND($E$70:$G$70,$E$67:$G$67,AG$32))*(About!$A$57)</f>
         <v>175.44785108659573</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A77" s="24" t="s">
         <v>433</v>
       </c>
@@ -48919,7 +48933,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -49052,7 +49066,7 @@
         <v>2.2432773481021002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -49199,13 +49213,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.86328125" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>522</v>
       </c>
@@ -49308,7 +49322,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>509</v>
       </c>
@@ -49410,7 +49424,7 @@
       </c>
       <c r="AI2" s="137"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>510</v>
       </c>
@@ -49543,7 +49557,7 @@
         <v>6.8976128566630268E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -49676,7 +49690,7 @@
         <v>6.8976128566630268E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>511</v>
       </c>
@@ -49809,7 +49823,7 @@
         <v>1.8524346005834896E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>512</v>
       </c>
@@ -49942,7 +49956,7 @@
         <v>6.8976128566630268E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>399</v>
       </c>
@@ -50075,7 +50089,7 @@
         <v>1.083603062466778E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>513</v>
       </c>
@@ -50208,7 +50222,7 @@
         <v>1.8524346005834896E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
@@ -50341,7 +50355,7 @@
         <v>1.8524346005834896E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>515</v>
       </c>
@@ -50474,7 +50488,7 @@
         <v>6.8976128566630268E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
@@ -50622,14 +50636,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.86328125" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="140" t="s">
         <v>522</v>
       </c>
       <c r="B1" s="1">
@@ -50731,7 +50745,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>509</v>
       </c>
@@ -50833,7 +50847,7 @@
       </c>
       <c r="AI2" s="137"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>510</v>
       </c>
@@ -50966,7 +50980,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -51099,7 +51113,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>511</v>
       </c>
@@ -51232,7 +51246,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>512</v>
       </c>
@@ -51365,7 +51379,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>399</v>
       </c>
@@ -51498,7 +51512,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>513</v>
       </c>
@@ -51631,7 +51645,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
@@ -51764,7 +51778,7 @@
         <v>-3.2668442622950817E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>515</v>
       </c>
@@ -51897,7 +51911,7 @@
         <v>9.7476718234136052E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
